--- a/Case-Study-02-MixITup-UIN-Contoh-Data.xlsx
+++ b/Case-Study-02-MixITup-UIN-Contoh-Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univindonesia-my.sharepoint.com/personal/edy_sutanto_office_ui_ac_id/Documents/Programs/Python/notebooks/Data Mining/Case Studies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5126827f0a5a21bd/Documents/GitHub/FlipClass-Data-Mining-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{445E6918-2B50-481E-ABB0-F7ABDF400C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C9EFEEF-3FA5-4A86-BA39-53ACDF3B5342}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{445E6918-2B50-481E-ABB0-F7ABDF400C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E324A1E1-F0DF-4837-86E7-A6547BE74B14}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="1845" windowWidth="20100" windowHeight="18930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TheCase" sheetId="2" r:id="rId1"/>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>HariFav</t>
-  </si>
-  <si>
-    <t>MixITup Ice Cream</t>
   </si>
   <si>
     <t>Catatan:</t>
@@ -743,6 +740,9 @@
   </si>
   <si>
     <t>Isi email: Seluruh Anggota dan NIM Mahasiswa</t>
+  </si>
+  <si>
+    <t>MixITup Ice Cream enak</t>
   </si>
 </sst>
 </file>
@@ -1733,15 +1733,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="54.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="60.75" x14ac:dyDescent="0.8">
+    <row r="3" spans="2:11" ht="60" x14ac:dyDescent="0.95">
       <c r="B3" s="12" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -1753,275 +1756,275 @@
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
         <v>64</v>
       </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
       <c r="C17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
         <v>12</v>
       </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="13"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="13"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>14</v>
-      </c>
-      <c r="C40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="13"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2047,15 +2050,15 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="112.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" ht="36.6" x14ac:dyDescent="0.7">
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -2063,129 +2066,129 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2204,21 +2207,21 @@
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="15.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="27" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="15" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2247,15 +2250,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2">
         <v>49</v>
@@ -2270,24 +2273,24 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2">
         <v>32</v>
@@ -2302,24 +2305,24 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J3" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2">
         <v>51</v>
@@ -2334,24 +2337,24 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2">
         <v>19</v>
@@ -2366,24 +2369,24 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2">
         <v>38</v>
@@ -2398,24 +2401,24 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>106</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2">
         <v>33</v>
@@ -2430,24 +2433,24 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2">
         <v>27</v>
@@ -2462,24 +2465,24 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J8" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>108</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <v>24</v>
@@ -2494,24 +2497,24 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J9" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>109</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2">
         <v>32</v>
@@ -2526,24 +2529,24 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="2">
         <v>2</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J10" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2">
         <v>21</v>
@@ -2558,24 +2561,24 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" s="2">
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>111</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2">
         <v>31</v>
@@ -2590,21 +2593,21 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>112</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2">
         <v>36</v>
@@ -2619,24 +2622,24 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J13" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>113</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2">
         <v>46</v>
@@ -2651,24 +2654,24 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" s="2">
         <v>3</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>114</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2">
         <v>60</v>
@@ -2683,24 +2686,24 @@
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15" s="2">
         <v>3</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J15" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>115</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2">
         <v>58</v>
@@ -2715,24 +2718,24 @@
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16" s="2">
         <v>5</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J16" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>116</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2">
         <v>51</v>
@@ -2744,24 +2747,24 @@
         <v>50</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J17" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>117</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2">
         <v>47</v>
@@ -2776,24 +2779,24 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18" s="2">
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>118</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2">
         <v>32</v>
@@ -2808,24 +2811,24 @@
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J19" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>119</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2">
         <v>45</v>
@@ -2840,19 +2843,19 @@
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" s="2">
         <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J20" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>120</v>
       </c>
@@ -2869,24 +2872,24 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H21" s="2">
         <v>3</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J21" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>121</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2">
         <v>22</v>
@@ -2901,24 +2904,24 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J22" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>122</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2">
         <v>18</v>
@@ -2933,24 +2936,24 @@
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J23" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>123</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2">
         <v>59</v>
@@ -2965,24 +2968,24 @@
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J24" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>124</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2">
         <v>44</v>
@@ -2997,24 +3000,24 @@
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H25" s="2">
         <v>3</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J25" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>125</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2">
         <v>39</v>
@@ -3029,24 +3032,24 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H26" s="2">
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J26" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>126</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2">
         <v>21</v>
@@ -3061,24 +3064,24 @@
         <v>0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" s="2">
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>127</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2">
         <v>35</v>
@@ -3093,24 +3096,24 @@
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H28" s="2">
         <v>3</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>128</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2">
         <v>38</v>
@@ -3125,24 +3128,24 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>129</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="2">
         <v>20</v>
@@ -3157,24 +3160,24 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J30" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>130</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2">
         <v>30</v>
@@ -3189,24 +3192,24 @@
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J31" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>131</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="2">
         <v>24</v>
@@ -3221,24 +3224,24 @@
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J32" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>132</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2">
         <v>27</v>
@@ -3253,24 +3256,24 @@
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H33" s="2">
         <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>133</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2">
         <v>36</v>
@@ -3285,24 +3288,24 @@
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H34" s="2">
         <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J34" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>134</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="2">
         <v>38</v>
@@ -3314,24 +3317,24 @@
         <v>40</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H35" s="2">
         <v>2</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J35" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>135</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="2">
         <v>23</v>
@@ -3346,24 +3349,24 @@
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" s="2">
         <v>2</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>136</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="2">
         <v>19</v>
@@ -3378,24 +3381,24 @@
         <v>0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" s="2">
         <v>3</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J37" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>137</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="2">
         <v>27</v>
@@ -3410,24 +3413,24 @@
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" s="2">
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>138</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="2">
         <v>27</v>
@@ -3442,24 +3445,24 @@
         <v>1</v>
       </c>
       <c r="G39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J39" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>139</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="2">
         <v>48</v>
@@ -3474,24 +3477,24 @@
         <v>1</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" s="2">
         <v>1</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J40" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>140</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="2">
         <v>19</v>
@@ -3506,24 +3509,24 @@
         <v>0</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H41" s="2">
         <v>1</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J41" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>141</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="2">
         <v>37</v>
@@ -3538,24 +3541,24 @@
         <v>1</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H42" s="2">
         <v>3</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>142</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="2">
         <v>33</v>
@@ -3570,24 +3573,24 @@
         <v>1</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H43" s="2">
         <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J43" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>143</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2">
         <v>39</v>
@@ -3599,24 +3602,24 @@
         <v>88</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H44" s="2">
         <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J44" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>144</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2">
         <v>37</v>
@@ -3631,24 +3634,24 @@
         <v>1</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H45" s="2">
         <v>3</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J45" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>145</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2">
         <v>32</v>
@@ -3663,24 +3666,24 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H46" s="2">
         <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>146</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="2">
         <v>59</v>
@@ -3695,24 +3698,24 @@
         <v>1</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H47" s="2">
         <v>2</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J47" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>147</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2">
         <v>18</v>
@@ -3727,19 +3730,19 @@
         <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H48" s="2">
         <v>2</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>148</v>
       </c>
@@ -3756,24 +3759,24 @@
         <v>1</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H49" s="2">
         <v>3</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J49" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>149</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2">
         <v>40</v>
@@ -3788,24 +3791,24 @@
         <v>1</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H50" s="2">
         <v>2</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J50" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>150</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2">
         <v>34</v>
@@ -3820,24 +3823,24 @@
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H51" s="2">
         <v>1</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>151</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2">
         <v>49</v>
@@ -3852,24 +3855,24 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H52" s="2">
         <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J52" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>152</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2">
         <v>23</v>
@@ -3884,24 +3887,24 @@
         <v>1</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H53" s="2">
         <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J53" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>153</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2">
         <v>49</v>
@@ -3916,24 +3919,24 @@
         <v>1</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H54" s="2">
         <v>1</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J54" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>154</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2">
         <v>48</v>
@@ -3948,24 +3951,24 @@
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H55" s="2">
         <v>2</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J55" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>155</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2">
         <v>47</v>
@@ -3980,24 +3983,24 @@
         <v>1</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H56" s="2">
         <v>2</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J56" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>156</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" s="2">
         <v>44</v>
@@ -4012,24 +4015,24 @@
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H57" s="2">
         <v>3</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J57" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>157</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2">
         <v>48</v>
@@ -4044,24 +4047,24 @@
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H58" s="2">
         <v>2</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J58" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>158</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="2">
         <v>40</v>
@@ -4076,24 +4079,24 @@
         <v>1</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H59" s="2">
         <v>3</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>159</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="2">
         <v>41</v>
@@ -4108,24 +4111,24 @@
         <v>1</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H60" s="2">
         <v>2</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J60" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>160</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" s="2">
         <v>48</v>
@@ -4140,24 +4143,24 @@
         <v>1</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H61" s="2">
         <v>2</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>161</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" s="2">
         <v>27</v>
@@ -4172,24 +4175,24 @@
         <v>1</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H62" s="2">
         <v>2</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J62" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>162</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C63" s="2">
         <v>46</v>
@@ -4204,24 +4207,24 @@
         <v>1</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H63" s="2">
         <v>1</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>163</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64" s="2">
         <v>53</v>
@@ -4236,24 +4239,24 @@
         <v>1</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H64" s="2">
         <v>2</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J64" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>164</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C65" s="2">
         <v>54</v>
@@ -4268,24 +4271,24 @@
         <v>1</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H65" s="2">
         <v>1</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J65" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>165</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C66" s="2">
         <v>31</v>
@@ -4300,21 +4303,21 @@
         <v>1</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J66" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>166</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C67" s="2">
         <v>40</v>
@@ -4329,24 +4332,24 @@
         <v>1</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H67" s="2">
         <v>2</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J67" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>167</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C68" s="2">
         <v>30</v>
@@ -4361,24 +4364,24 @@
         <v>1</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H68" s="2">
         <v>1</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J68" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>168</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C69" s="2">
         <v>60</v>
@@ -4393,24 +4396,24 @@
         <v>1</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H69" s="2">
         <v>1</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J69" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>169</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C70" s="2">
         <v>20</v>
@@ -4425,24 +4428,24 @@
         <v>0</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H70" s="2">
         <v>3</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J70" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>170</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C71" s="2">
         <v>28</v>
@@ -4457,24 +4460,24 @@
         <v>1</v>
       </c>
       <c r="G71" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H71" s="2">
-        <v>1</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J71" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>171</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2">
         <v>49</v>
@@ -4489,24 +4492,24 @@
         <v>1</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H72" s="2">
         <v>1</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J72" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>172</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2">
         <v>49</v>
@@ -4521,24 +4524,24 @@
         <v>1</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H73" s="2">
         <v>3</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J73" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>173</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2">
         <v>48</v>
@@ -4553,24 +4556,24 @@
         <v>1</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H74" s="2">
         <v>2</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J74" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>174</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C75" s="2">
         <v>54</v>
@@ -4585,24 +4588,24 @@
         <v>1</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H75" s="2">
         <v>3</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J75" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>175</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C76" s="2">
         <v>24</v>
@@ -4617,24 +4620,24 @@
         <v>1</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H76" s="2">
         <v>1</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J76" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>176</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C77" s="2">
         <v>45</v>
@@ -4649,24 +4652,24 @@
         <v>1</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H77" s="2">
         <v>3</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J77" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>177</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C78" s="2">
         <v>53</v>
@@ -4681,24 +4684,24 @@
         <v>1</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H78" s="2">
         <v>2</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J78" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>178</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2">
         <v>38</v>
@@ -4713,24 +4716,24 @@
         <v>1</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J79" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>179</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2">
         <v>40</v>
@@ -4745,24 +4748,24 @@
         <v>1</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J80" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>180</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2">
         <v>35</v>
@@ -4777,24 +4780,24 @@
         <v>1</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H81" s="2">
         <v>1</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J81" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>181</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2">
         <v>34</v>
@@ -4809,24 +4812,24 @@
         <v>1</v>
       </c>
       <c r="G82" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1</v>
+      </c>
+      <c r="I82" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H82" s="2">
-        <v>1</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J82" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>182</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2">
         <v>55</v>
@@ -4841,24 +4844,24 @@
         <v>1</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H83" s="2">
         <v>1</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J83" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>183</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C84" s="2">
         <v>31</v>
@@ -4870,24 +4873,24 @@
         <v>93</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J84" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>184</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C85" s="2">
         <v>25</v>
@@ -4902,24 +4905,24 @@
         <v>0</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H85" s="2">
         <v>3</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J85" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>185</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C86" s="2">
         <v>50</v>
@@ -4934,24 +4937,24 @@
         <v>1</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H86" s="2">
         <v>1</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J86" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>186</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C87" s="2">
         <v>46</v>
@@ -4966,24 +4969,24 @@
         <v>1</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H87" s="2">
         <v>2</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J87" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>187</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C88" s="2">
         <v>42</v>
@@ -4998,24 +5001,24 @@
         <v>1</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H88" s="2">
         <v>3</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J88" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>188</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C89" s="2">
         <v>28</v>
@@ -5030,24 +5033,24 @@
         <v>1</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H89" s="2">
         <v>2</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J89" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>189</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C90" s="2">
         <v>45</v>
@@ -5062,24 +5065,24 @@
         <v>1</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H90" s="2">
         <v>1</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J90" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>190</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2">
         <v>28</v>
@@ -5094,24 +5097,24 @@
         <v>1</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J91" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>191</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C92" s="2">
         <v>36</v>
@@ -5123,24 +5126,24 @@
         <v>27</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H92" s="2">
         <v>3</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J92" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>192</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C93" s="2">
         <v>59</v>
@@ -5155,24 +5158,24 @@
         <v>1</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H93" s="2">
         <v>3</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J93" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>193</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C94" s="2">
         <v>48</v>
@@ -5187,24 +5190,24 @@
         <v>1</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H94" s="2">
         <v>2</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J94" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>194</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C95" s="2">
         <v>40</v>
@@ -5219,24 +5222,24 @@
         <v>1</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H95" s="2">
         <v>3</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J95" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>195</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C96" s="2">
         <v>58</v>
@@ -5251,24 +5254,24 @@
         <v>1</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H96" s="2">
         <v>3</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J96" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>196</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C97" s="2">
         <v>30</v>
@@ -5283,21 +5286,21 @@
         <v>1</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J97" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>197</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C98" s="2">
         <v>60</v>
@@ -5312,24 +5315,24 @@
         <v>1</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H98" s="2">
         <v>1</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J98" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>198</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C99" s="2">
         <v>51</v>
@@ -5341,24 +5344,24 @@
         <v>43</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H99" s="2">
         <v>2</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J99" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>199</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C100" s="2">
         <v>40</v>
@@ -5373,24 +5376,24 @@
         <v>1</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H100" s="2">
         <v>1</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J100" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>200</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C101" s="2">
         <v>29</v>
@@ -5405,24 +5408,24 @@
         <v>1</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H101" s="2">
         <v>2</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J101" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>201</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C102" s="2">
         <v>43</v>
@@ -5437,24 +5440,24 @@
         <v>1</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H102" s="2">
         <v>1</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J102" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>202</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C103" s="2">
         <v>34</v>
@@ -5469,24 +5472,24 @@
         <v>1</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H103" s="2">
         <v>3</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J103" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>203</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2">
         <v>32</v>
@@ -5498,24 +5501,24 @@
         <v>18</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H104" s="2">
         <v>3</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J104" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>204</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C105" s="2">
         <v>42</v>
@@ -5530,24 +5533,24 @@
         <v>1</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H105" s="2">
         <v>2</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J105" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>205</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C106" s="2">
         <v>54</v>
@@ -5562,24 +5565,24 @@
         <v>1</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H106" s="2">
         <v>3</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J106" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>206</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C107" s="2">
         <v>35</v>
@@ -5591,24 +5594,24 @@
         <v>35</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H107" s="2">
         <v>2</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J107" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>207</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C108" s="2">
         <v>35</v>
@@ -5623,24 +5626,24 @@
         <v>1</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J108" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>208</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C109" s="2">
         <v>19</v>
@@ -5655,24 +5658,24 @@
         <v>0</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H109" s="2">
         <v>1</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J109" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>209</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C110" s="2">
         <v>32</v>
@@ -5687,24 +5690,24 @@
         <v>1</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H110" s="2">
         <v>2</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J110" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>210</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C111" s="2">
         <v>20</v>
@@ -5719,24 +5722,24 @@
         <v>0</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H111" s="2">
         <v>1</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J111" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>211</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C112" s="2">
         <v>21</v>
@@ -5751,24 +5754,24 @@
         <v>1</v>
       </c>
       <c r="G112" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H112" s="2">
+        <v>1</v>
+      </c>
+      <c r="I112" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H112" s="2">
-        <v>1</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J112" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>212</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C113" s="2">
         <v>39</v>
@@ -5783,24 +5786,24 @@
         <v>1</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H113" s="2">
         <v>0</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J113" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>213</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C114" s="2">
         <v>23</v>
@@ -5815,24 +5818,24 @@
         <v>0</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H114" s="2">
         <v>1</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J114" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>214</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C115" s="2">
         <v>52</v>
@@ -5847,24 +5850,24 @@
         <v>1</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H115" s="2">
         <v>3</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J115" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>215</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C116" s="2">
         <v>47</v>
@@ -5879,24 +5882,24 @@
         <v>1</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H116" s="2">
         <v>1</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J116" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>216</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C117" s="2">
         <v>47</v>
@@ -5911,24 +5914,24 @@
         <v>1</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H117" s="2">
         <v>3</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J117" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>217</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C118" s="2">
         <v>52</v>
@@ -5943,19 +5946,19 @@
         <v>1</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H118" s="2">
         <v>1</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J118" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>218</v>
       </c>
@@ -5972,24 +5975,24 @@
         <v>1</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H119" s="2">
         <v>2</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J119" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>219</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C120" s="2">
         <v>29</v>
@@ -6004,24 +6007,24 @@
         <v>1</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H120" s="2">
         <v>1</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J120" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>220</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C121" s="2">
         <v>2</v>
@@ -6036,24 +6039,24 @@
         <v>0</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H121" s="2">
         <v>2</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J121" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>221</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C122" s="2">
         <v>53</v>
@@ -6068,24 +6071,24 @@
         <v>1</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H122" s="2">
         <v>3</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J122" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>222</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C123" s="2">
         <v>50</v>
@@ -6100,24 +6103,24 @@
         <v>1</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H123" s="2">
         <v>2</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J123" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>223</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C124" s="2">
         <v>34</v>
@@ -6132,24 +6135,24 @@
         <v>1</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H124" s="2">
         <v>3</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J124" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>224</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C125" s="2">
         <v>19</v>
@@ -6164,24 +6167,24 @@
         <v>0</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H125" s="2">
         <v>3</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J125" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>225</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C126" s="2">
         <v>41</v>
@@ -6196,24 +6199,24 @@
         <v>1</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H126" s="2">
         <v>3</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J126" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>226</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C127" s="2">
         <v>29</v>
@@ -6228,24 +6231,24 @@
         <v>1</v>
       </c>
       <c r="G127" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H127" s="2">
+        <v>1</v>
+      </c>
+      <c r="I127" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H127" s="2">
-        <v>1</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="J127" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>227</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C128" s="2">
         <v>47</v>
@@ -6257,24 +6260,24 @@
         <v>101</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H128" s="2">
         <v>2</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J128" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>228</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C129" s="2">
         <v>43</v>
@@ -6289,24 +6292,24 @@
         <v>1</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H129" s="2">
         <v>1</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J129" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>229</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C130" s="2">
         <v>23</v>
@@ -6321,24 +6324,24 @@
         <v>1</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H130" s="2">
         <v>3</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J130" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>230</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C131" s="2">
         <v>55</v>
@@ -6353,24 +6356,24 @@
         <v>1</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H131" s="2">
         <v>2</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J131" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>231</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C132" s="2">
         <v>44</v>
@@ -6385,24 +6388,24 @@
         <v>1</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H132" s="2">
         <v>3</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J132" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>232</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C133" s="2">
         <v>18</v>
@@ -6417,24 +6420,24 @@
         <v>0</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H133" s="2">
         <v>0</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J133" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>233</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C134" s="2">
         <v>31</v>
@@ -6449,21 +6452,21 @@
         <v>1</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J134" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>234</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C135" s="2">
         <v>20</v>
@@ -6478,27 +6481,27 @@
         <v>0</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H135" s="2">
         <v>3</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J135" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>235</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D136" s="8">
         <v>2459016</v>
@@ -6507,19 +6510,19 @@
         <v>35</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H136" s="2">
         <v>3</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J136" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>236</v>
       </c>
@@ -6536,24 +6539,24 @@
         <v>1</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H137" s="2">
         <v>2</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J137" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>237</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C138" s="2">
         <v>43</v>
@@ -6568,24 +6571,24 @@
         <v>1</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H138" s="2">
         <v>2</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J138" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>238</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C139" s="2">
         <v>35</v>
@@ -6600,24 +6603,24 @@
         <v>1</v>
       </c>
       <c r="G139" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H139" s="2">
+        <v>1</v>
+      </c>
+      <c r="I139" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H139" s="2">
-        <v>1</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J139" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>239</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C140" s="2">
         <v>20</v>
@@ -6632,24 +6635,24 @@
         <v>0</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H140" s="2">
         <v>2</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J140" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>240</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C141" s="2">
         <v>30</v>
@@ -6664,24 +6667,24 @@
         <v>1</v>
       </c>
       <c r="G141" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H141" s="2">
+        <v>1</v>
+      </c>
+      <c r="I141" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H141" s="2">
-        <v>1</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J141" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>241</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C142" s="2">
         <v>50</v>
@@ -6693,24 +6696,24 @@
         <v>57</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H142" s="2">
         <v>1</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J142" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>242</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C143" s="2">
         <v>31</v>
@@ -6725,24 +6728,24 @@
         <v>1</v>
       </c>
       <c r="G143" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H143" s="2">
+        <v>1</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H143" s="2">
-        <v>1</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J143" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>243</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C144" s="2">
         <v>25</v>
@@ -6757,24 +6760,24 @@
         <v>1</v>
       </c>
       <c r="G144" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H144" s="2">
+        <v>1</v>
+      </c>
+      <c r="I144" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H144" s="2">
-        <v>1</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J144" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>244</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C145" s="2">
         <v>42</v>
@@ -6789,24 +6792,24 @@
         <v>1</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H145" s="2">
         <v>3</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J145" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>245</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C146" s="2">
         <v>34</v>
@@ -6821,24 +6824,24 @@
         <v>1</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H146" s="2">
         <v>3</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J146" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>246</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C147" s="2">
         <v>38</v>
@@ -6853,24 +6856,24 @@
         <v>1</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H147" s="2">
         <v>1</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J147" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>247</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C148" s="2">
         <v>19</v>
@@ -6885,24 +6888,24 @@
         <v>0</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H148" s="2">
         <v>1</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J148" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>248</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C149" s="2">
         <v>47</v>
@@ -6917,24 +6920,24 @@
         <v>1</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H149" s="2">
         <v>2</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J149" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>249</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C150" s="2">
         <v>21</v>
@@ -6949,24 +6952,24 @@
         <v>0</v>
       </c>
       <c r="G150" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H150" s="2">
+        <v>1</v>
+      </c>
+      <c r="I150" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H150" s="2">
-        <v>1</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J150" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>250</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C151" s="2">
         <v>56</v>
@@ -6981,24 +6984,24 @@
         <v>1</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H151" s="2">
         <v>2</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J151" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>251</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C152" s="2">
         <v>37</v>
@@ -7013,24 +7016,24 @@
         <v>1</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H152" s="2">
         <v>3</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J152" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>252</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C153" s="2">
         <v>30</v>
@@ -7042,24 +7045,24 @@
         <v>97</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J153" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>253</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C154" s="2">
         <v>59</v>
@@ -7074,24 +7077,24 @@
         <v>1</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H154" s="2">
         <v>3</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J154" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>254</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C155" s="2">
         <v>26</v>
@@ -7106,24 +7109,24 @@
         <v>1</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H155" s="2">
         <v>1</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J155" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>255</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C156" s="2">
         <v>35</v>
@@ -7138,24 +7141,24 @@
         <v>1</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H156" s="2">
         <v>0</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J156" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>256</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C157" s="2">
         <v>35</v>
@@ -7170,24 +7173,24 @@
         <v>1</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H157" s="2">
         <v>0</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J157" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>257</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C158" s="2">
         <v>36</v>
@@ -7202,24 +7205,24 @@
         <v>1</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H158" s="2">
         <v>3</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J158" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>258</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C159" s="2">
         <v>38</v>
@@ -7234,24 +7237,24 @@
         <v>1</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H159" s="2">
         <v>1</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J159" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>259</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C160" s="2">
         <v>28</v>
@@ -7266,24 +7269,24 @@
         <v>1</v>
       </c>
       <c r="G160" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H160" s="2">
+        <v>1</v>
+      </c>
+      <c r="I160" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H160" s="2">
-        <v>1</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J160" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>260</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C161" s="2">
         <v>45</v>
@@ -7298,24 +7301,24 @@
         <v>1</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H161" s="2">
         <v>2</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J161" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>261</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C162" s="2">
         <v>32</v>
@@ -7330,24 +7333,24 @@
         <v>1</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H162" s="2">
         <v>0</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J162" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>262</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C163" s="2">
         <v>19</v>
@@ -7362,24 +7365,24 @@
         <v>0</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H163" s="2">
         <v>2</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J163" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>263</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C164" s="2">
         <v>29</v>
@@ -7394,24 +7397,24 @@
         <v>1</v>
       </c>
       <c r="G164" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H164" s="2">
+        <v>1</v>
+      </c>
+      <c r="I164" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H164" s="2">
-        <v>1</v>
-      </c>
-      <c r="I164" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J164" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>264</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C165" s="2">
         <v>58</v>
@@ -7426,24 +7429,24 @@
         <v>1</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H165" s="2">
         <v>1</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J165" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>265</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C166" s="2">
         <v>29</v>
@@ -7458,24 +7461,24 @@
         <v>1</v>
       </c>
       <c r="G166" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H166" s="2">
+        <v>1</v>
+      </c>
+      <c r="I166" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H166" s="2">
-        <v>1</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J166" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>266</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C167" s="2">
         <v>54</v>
@@ -7490,24 +7493,24 @@
         <v>1</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H167" s="2">
         <v>1</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J167" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>267</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C168" s="2">
         <v>30</v>
@@ -7522,24 +7525,24 @@
         <v>1</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H168" s="2">
         <v>1</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J168" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>268</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C169" s="2">
         <v>32</v>
@@ -7554,24 +7557,24 @@
         <v>1</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H169" s="2">
         <v>1</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J169" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>269</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C170" s="2">
         <v>24</v>
@@ -7586,24 +7589,24 @@
         <v>1</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H170" s="2">
         <v>1</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J170" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>270</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C171" s="2">
         <v>32</v>
@@ -7618,24 +7621,24 @@
         <v>1</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H171" s="2">
         <v>1</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J171" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>271</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C172" s="2">
         <v>27</v>
@@ -7650,24 +7653,24 @@
         <v>1</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H172" s="2">
         <v>1</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J172" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>272</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C173" s="2">
         <v>57</v>
@@ -7682,24 +7685,24 @@
         <v>1</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H173" s="2">
         <v>3</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J173" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>273</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C174" s="2">
         <v>50</v>
@@ -7714,24 +7717,24 @@
         <v>1</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H174" s="2">
         <v>2</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J174" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>274</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C175" s="2">
         <v>26</v>
@@ -7746,24 +7749,24 @@
         <v>1</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H175" s="2">
         <v>1</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J175" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>275</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C176" s="2">
         <v>36</v>
@@ -7778,24 +7781,24 @@
         <v>1</v>
       </c>
       <c r="G176" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H176" s="2">
+        <v>1</v>
+      </c>
+      <c r="I176" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H176" s="2">
-        <v>1</v>
-      </c>
-      <c r="I176" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J176" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>276</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C177" s="2">
         <v>43</v>
@@ -7810,24 +7813,24 @@
         <v>1</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H177" s="2">
         <v>3</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J177" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>277</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C178" s="2">
         <v>25</v>
@@ -7842,24 +7845,24 @@
         <v>1</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H178" s="2">
         <v>3</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J178" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>278</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C179" s="2">
         <v>30</v>
@@ -7874,24 +7877,24 @@
         <v>0</v>
       </c>
       <c r="G179" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H179" s="2">
+        <v>1</v>
+      </c>
+      <c r="I179" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H179" s="2">
-        <v>1</v>
-      </c>
-      <c r="I179" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J179" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>279</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C180" s="2">
         <v>22</v>
@@ -7906,24 +7909,24 @@
         <v>0</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H180" s="2">
         <v>1</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J180" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>280</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C181" s="2">
         <v>32</v>
@@ -7938,24 +7941,24 @@
         <v>1</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H181" s="2">
         <v>1</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J181" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>281</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C182" s="2">
         <v>50</v>
@@ -7967,27 +7970,27 @@
         <v>26</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H182" s="2">
         <v>3</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J182" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>282</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C183" s="2">
         <v>32</v>
@@ -8002,24 +8005,24 @@
         <v>1</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H183" s="2">
         <v>1</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J183" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>283</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C184" s="2">
         <v>47</v>
@@ -8034,24 +8037,24 @@
         <v>1</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H184" s="2">
         <v>3</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J184" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>284</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C185" s="2">
         <v>23</v>
@@ -8066,24 +8069,24 @@
         <v>0</v>
       </c>
       <c r="G185" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H185" s="2">
+        <v>1</v>
+      </c>
+      <c r="I185" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H185" s="2">
-        <v>1</v>
-      </c>
-      <c r="I185" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J185" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>285</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C186" s="2">
         <v>33</v>
@@ -8098,24 +8101,24 @@
         <v>1</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H186" s="2">
         <v>3</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J186" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>286</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C187" s="2">
         <v>21</v>
@@ -8130,24 +8133,24 @@
         <v>0</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H187" s="2">
         <v>1</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J187" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>287</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C188" s="2">
         <v>46</v>
@@ -8162,24 +8165,24 @@
         <v>1</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H188" s="2">
         <v>3</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J188" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>288</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C189" s="2">
         <v>19</v>
@@ -8194,24 +8197,24 @@
         <v>0</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H189" s="2">
         <v>2</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J189" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>289</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C190" s="2">
         <v>56</v>
@@ -8226,24 +8229,24 @@
         <v>1</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H190" s="2">
         <v>2</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J190" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>290</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C191" s="2">
         <v>57</v>
@@ -8258,24 +8261,24 @@
         <v>1</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H191" s="2">
         <v>1</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J191" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>291</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C192" s="2">
         <v>52</v>
@@ -8287,24 +8290,24 @@
         <v>13</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H192" s="2">
         <v>3</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J192" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>292</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C193" s="2">
         <v>22</v>
@@ -8319,24 +8322,24 @@
         <v>1</v>
       </c>
       <c r="G193" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H193" s="2">
+        <v>1</v>
+      </c>
+      <c r="I193" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H193" s="2">
-        <v>1</v>
-      </c>
-      <c r="I193" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J193" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>293</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C194" s="2">
         <v>31</v>
@@ -8351,24 +8354,24 @@
         <v>1</v>
       </c>
       <c r="G194" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H194" s="2">
+        <v>1</v>
+      </c>
+      <c r="I194" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H194" s="2">
-        <v>1</v>
-      </c>
-      <c r="I194" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J194" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>294</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C195" s="2">
         <v>54</v>
@@ -8383,24 +8386,24 @@
         <v>1</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H195" s="2">
         <v>2</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J195" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>295</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C196" s="2">
         <v>31</v>
@@ -8415,21 +8418,21 @@
         <v>1</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J196" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>296</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C197" s="2">
         <v>31</v>
@@ -8444,24 +8447,24 @@
         <v>1</v>
       </c>
       <c r="G197" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H197" s="2">
+        <v>1</v>
+      </c>
+      <c r="I197" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H197" s="2">
-        <v>1</v>
-      </c>
-      <c r="I197" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J197" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>297</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C198" s="2">
         <v>57</v>
@@ -8476,24 +8479,24 @@
         <v>1</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H198" s="2">
         <v>1</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J198" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>298</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C199" s="2">
         <v>35</v>
@@ -8508,24 +8511,24 @@
         <v>1</v>
       </c>
       <c r="G199" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H199" s="2">
+        <v>1</v>
+      </c>
+      <c r="I199" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H199" s="2">
-        <v>1</v>
-      </c>
-      <c r="I199" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J199" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>299</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C200" s="2">
         <v>23</v>
@@ -8540,24 +8543,24 @@
         <v>1</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H200" s="2">
         <v>0</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J200" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>300</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C201" s="2">
         <v>50</v>
@@ -8572,13 +8575,13 @@
         <v>1</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H201" s="2">
         <v>3</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J201" s="10">
         <v>6</v>

--- a/Case-Study-02-MixITup-UIN-Contoh-Data.xlsx
+++ b/Case-Study-02-MixITup-UIN-Contoh-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5126827f0a5a21bd/Documents/GitHub/FlipClass-Data-Mining-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{445E6918-2B50-481E-ABB0-F7ABDF400C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E324A1E1-F0DF-4837-86E7-A6547BE74B14}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{445E6918-2B50-481E-ABB0-F7ABDF400C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BE4BB3B-0779-4220-AA98-025B8C213A7F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -743,6 +743,9 @@
   </si>
   <si>
     <t>MixITup Ice Cream enak</t>
+  </si>
+  <si>
+    <t>FlipClass-Data-Mining-2/Case_Study_Data_Mining_Kelompok_2.ipynb at main · rizkyazriel/FlipClass-Data-Mining-2 (github.com)</t>
   </si>
 </sst>
 </file>
@@ -1733,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1933,7 +1936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>19</v>
       </c>
@@ -1941,18 +1944,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>31</v>
       </c>
@@ -1960,7 +1963,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>11</v>
       </c>
@@ -1968,7 +1971,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>32</v>
       </c>
@@ -1976,7 +1979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>13</v>
       </c>
@@ -1984,21 +1987,24 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>14</v>
       </c>
       <c r="C41" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="H41" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C43" s="13"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>10</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>11</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>13</v>
       </c>
@@ -2022,7 +2028,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>14</v>
       </c>
@@ -2036,9 +2042,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D39" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H41" r:id="rId2" display="https://github.com/rizkyazriel/FlipClass-Data-Mining-2/blob/main/Case_Study_Data_Mining_Kelompok_2.ipynb" xr:uid="{DA5A2198-ABC0-4611-8533-F9B3D0DCA91C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Case-Study-02-MixITup-UIN-Contoh-Data.xlsx
+++ b/Case-Study-02-MixITup-UIN-Contoh-Data.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5126827f0a5a21bd/Documents/GitHub/FlipClass-Data-Mining-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{445E6918-2B50-481E-ABB0-F7ABDF400C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BE4BB3B-0779-4220-AA98-025B8C213A7F}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{445E6918-2B50-481E-ABB0-F7ABDF400C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92ACCE41-C284-459D-A128-453FB6B1B7CC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TheCase" sheetId="2" r:id="rId1"/>
     <sheet name="Data Understanding" sheetId="3" r:id="rId2"/>
     <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$G$1:$G$201</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -746,6 +749,9 @@
   </si>
   <si>
     <t>FlipClass-Data-Mining-2/Case_Study_Data_Mining_Kelompok_2.ipynb at main · rizkyazriel/FlipClass-Data-Mining-2 (github.com)</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1340,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1357,10 +1363,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1736,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1746,18 +1755,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="60" x14ac:dyDescent="0.95">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -1873,12 +1882,12 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
@@ -1950,10 +1959,10 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
@@ -1999,10 +2008,10 @@
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="13"/>
+      <c r="C43" s="14"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
@@ -2064,14 +2073,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -2208,10 +2217,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J201"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection sqref="A1:J201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2228,7 +2237,7 @@
     <col min="10" max="10" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2260,480 +2269,484 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="10">
         <v>49</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="10">
         <v>13114754</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="10">
         <v>52</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="10">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="10">
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="10">
         <v>32</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="10">
         <v>33606557</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="10">
         <v>86</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="10">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="10">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="10">
         <v>51</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="10">
         <v>15983606</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="10">
         <v>41</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="10">
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="10">
         <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="10">
         <v>19</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="10">
         <v>12704918</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="10">
         <v>55</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="10">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="10">
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="12">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="10">
         <v>38</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="10">
         <v>20081967</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="10">
         <v>42</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="10">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="10">
         <v>2</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="12">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>106</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="10">
         <v>33</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="10">
         <v>29098360</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="10">
         <v>95</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="10">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="10">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="10">
         <v>27</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="10">
         <v>21311475</v>
       </c>
-      <c r="E8" s="2">
-        <v>56</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="10">
+        <v>56</v>
+      </c>
+      <c r="F8" s="10">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="10">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>108</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="10">
         <v>24</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="10">
         <v>2049180</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="10">
         <v>77</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="10">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="10">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>109</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="10">
         <v>32</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="10">
         <v>13524590</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="10">
         <v>47</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="10">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="10">
         <v>2</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>110</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="10">
         <v>21</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="10">
         <v>19262295</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="10">
         <v>42</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="10">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="10">
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>111</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="10">
         <v>31</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="10">
         <v>11475409</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="10">
         <v>54</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="10">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="H12" s="10"/>
       <c r="I12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>112</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="10">
         <v>36</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="10">
         <v>29508196</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="10">
         <v>92</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="10">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="10">
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>113</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="10">
         <v>46</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="10">
         <v>34016393</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="10">
         <v>15</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="10">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="10">
         <v>3</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="12">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>114</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="10">
         <v>60</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="10">
         <v>6147540</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="10">
         <v>4</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="10">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="10">
         <v>3</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>115</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="10">
         <v>58</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="10">
         <v>2049180</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="10">
         <v>15</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="10">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="10">
         <v>5</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="12">
         <v>8</v>
       </c>
     </row>
@@ -2744,25 +2757,26 @@
       <c r="B17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="10">
         <v>51</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="10">
         <v>11885245</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="10">
         <v>50</v>
       </c>
+      <c r="F17" s="10"/>
       <c r="G17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="10">
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2773,28 +2787,28 @@
       <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="10">
         <v>47</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="10">
         <v>25819672</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="10">
         <v>16</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="10">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="10">
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2805,28 +2819,28 @@
       <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="10">
         <v>32</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="10">
         <v>25000000</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="10">
         <v>87</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="10">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="10">
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="12">
         <v>8</v>
       </c>
     </row>
@@ -2837,28 +2851,28 @@
       <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="10">
         <v>45</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="10">
         <v>5327868</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="10">
         <v>32</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="10">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="10">
         <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2866,28 +2880,28 @@
       <c r="A21" s="1">
         <v>120</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="10">
         <v>49</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="10">
         <v>9836065</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="10">
         <v>28</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="10">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="10">
         <v>3</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="12">
         <v>7</v>
       </c>
     </row>
@@ -2898,28 +2912,28 @@
       <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="10">
         <v>22</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="10">
         <v>2049180</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="10">
         <v>79</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="10">
         <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="10">
         <v>1</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="12">
         <v>6</v>
       </c>
     </row>
@@ -2930,28 +2944,28 @@
       <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="10">
         <v>18</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="10">
         <v>13524590</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="10">
         <v>59</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="10">
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="10">
         <v>1</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="12">
         <v>4</v>
       </c>
     </row>
@@ -2962,28 +2976,28 @@
       <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="10">
         <v>59</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="10">
         <v>11475409</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="10">
         <v>60</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="10">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="10">
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2994,28 +3008,28 @@
       <c r="B25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="10">
         <v>44</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="10">
         <v>23770491</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="10">
         <v>7</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="10">
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="10">
         <v>3</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="10">
         <v>2</v>
       </c>
     </row>
@@ -3026,28 +3040,28 @@
       <c r="B26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="10">
         <v>39</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="10">
         <v>22950819</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="10">
         <v>75</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="10">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="10">
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="12">
         <v>8</v>
       </c>
     </row>
@@ -3058,28 +3072,28 @@
       <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="10">
         <v>21</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="10">
         <v>15983606</v>
       </c>
-      <c r="E27" s="2">
-        <v>57</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="E27" s="10">
+        <v>57</v>
+      </c>
+      <c r="F27" s="10">
         <v>0</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="10">
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3090,28 +3104,28 @@
       <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="10">
         <v>35</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="10">
         <v>1229508</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="10">
         <v>6</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="10">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="10">
         <v>3</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="10">
         <v>1</v>
       </c>
     </row>
@@ -3122,28 +3136,28 @@
       <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="10">
         <v>38</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="10">
         <v>15983606</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="10">
         <v>55</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="10">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="10">
         <v>1</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="10">
         <v>1</v>
       </c>
     </row>
@@ -3154,28 +3168,28 @@
       <c r="B30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="10">
         <v>20</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="10">
         <v>9016393</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="10">
         <v>75</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="10">
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="10">
         <v>1</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="12">
         <v>4</v>
       </c>
     </row>
@@ -3186,28 +3200,28 @@
       <c r="B31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="10">
         <v>30</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="10">
         <v>25819672</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="10">
         <v>73</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="10">
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="10">
         <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="12">
         <v>8</v>
       </c>
     </row>
@@ -3218,28 +3232,28 @@
       <c r="B32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="10">
         <v>24</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="10">
         <v>9426229</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="10">
         <v>92</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="10">
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="10">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3250,28 +3264,28 @@
       <c r="B33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="10">
         <v>27</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="10">
         <v>29918032</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="10">
         <v>69</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="10">
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="10">
         <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3282,28 +3296,28 @@
       <c r="B34" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="10">
         <v>36</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="10">
         <v>28688524</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="10">
         <v>75</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="10">
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="10">
         <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="12">
         <v>6</v>
       </c>
     </row>
@@ -3314,25 +3328,26 @@
       <c r="B35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="10">
         <v>38</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="10">
         <v>21311475</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="10">
         <v>40</v>
       </c>
+      <c r="F35" s="10"/>
       <c r="G35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="10">
         <v>2</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="12">
         <v>7</v>
       </c>
     </row>
@@ -3343,28 +3358,28 @@
       <c r="B36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="10">
         <v>23</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="10">
         <v>19262295</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="10">
         <v>41</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="10">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="10">
         <v>2</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="10">
         <v>1</v>
       </c>
     </row>
@@ -3375,28 +3390,28 @@
       <c r="B37" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="10">
         <v>19</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="10">
         <v>27049180</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="10">
         <v>5</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="10">
         <v>0</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="10">
         <v>3</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="12">
         <v>5</v>
       </c>
     </row>
@@ -3407,28 +3422,28 @@
       <c r="B38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="10">
         <v>27</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="10">
         <v>18442622</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="10">
         <v>50</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="10">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="10">
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3439,28 +3454,28 @@
       <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="10">
         <v>27</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="10">
         <v>25819672</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="10">
         <v>89</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="10">
         <v>1</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="10">
         <v>1</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3471,28 +3486,28 @@
       <c r="B40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="10">
         <v>48</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="10">
         <v>18442622</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="10">
         <v>49</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="10">
         <v>1</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="10">
         <v>1</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="12">
         <v>6</v>
       </c>
     </row>
@@ -3503,28 +3518,28 @@
       <c r="B41" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="10">
         <v>19</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="10">
         <v>19672131</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="10">
         <v>54</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="10">
         <v>0</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="10">
         <v>1</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="12">
         <v>4</v>
       </c>
     </row>
@@ -3535,28 +3550,28 @@
       <c r="B42" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="10">
         <v>37</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="10">
         <v>2049180</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="10">
         <v>13</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="10">
         <v>1</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="10">
         <v>3</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3567,28 +3582,28 @@
       <c r="B43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="10">
         <v>33</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="10">
         <v>11065573</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="10">
         <v>60</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="10">
         <v>1</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="10">
         <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3599,25 +3614,26 @@
       <c r="B44" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="10">
         <v>39</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="10">
         <v>25819672</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="10">
         <v>88</v>
       </c>
+      <c r="F44" s="10"/>
       <c r="G44" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="10">
         <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3628,28 +3644,28 @@
       <c r="B45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="10">
         <v>37</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="10">
         <v>33606557</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="10">
         <v>32</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="10">
         <v>1</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="10">
         <v>3</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="10">
         <v>2</v>
       </c>
     </row>
@@ -3660,28 +3676,28 @@
       <c r="B46" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="10">
         <v>32</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="10">
         <v>36065573</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="10">
         <v>69</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="10">
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="10">
         <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="10">
         <v>1</v>
       </c>
     </row>
@@ -3692,28 +3708,28 @@
       <c r="B47" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="10">
         <v>59</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="10">
         <v>15983606</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="10">
         <v>47</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="10">
         <v>1</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="10">
         <v>2</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="12">
         <v>8</v>
       </c>
     </row>
@@ -3724,28 +3740,28 @@
       <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="10">
         <v>18</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="10">
         <v>20491803</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="10">
         <v>48</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="10">
         <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="10">
         <v>2</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3753,28 +3769,28 @@
       <c r="A49" s="1">
         <v>148</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="10">
         <v>36</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="10">
         <v>29508196</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="10">
         <v>10</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="10">
         <v>1</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="10">
         <v>3</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49" s="12">
         <v>6</v>
       </c>
     </row>
@@ -3785,28 +3801,28 @@
       <c r="B50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="10">
         <v>40</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="10">
         <v>18442622</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="10">
         <v>40</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="10">
         <v>1</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="10">
         <v>2</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J50" s="10">
+      <c r="J50" s="12">
         <v>8</v>
       </c>
     </row>
@@ -3817,28 +3833,28 @@
       <c r="B51" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="10">
         <v>34</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="10">
         <v>17622950</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="10">
         <v>60</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="10">
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="10">
         <v>1</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="10">
         <v>1</v>
       </c>
     </row>
@@ -3849,28 +3865,28 @@
       <c r="B52" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="10">
         <v>49</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="10">
         <v>19262295</v>
       </c>
-      <c r="E52" s="2">
-        <v>56</v>
-      </c>
-      <c r="F52" s="2">
+      <c r="E52" s="10">
+        <v>56</v>
+      </c>
+      <c r="F52" s="10">
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="10">
         <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J52" s="10">
+      <c r="J52" s="12">
         <v>6</v>
       </c>
     </row>
@@ -3881,28 +3897,28 @@
       <c r="B53" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="10">
         <v>23</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="10">
         <v>409836</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="10">
         <v>77</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="10">
         <v>1</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="10">
         <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="10">
         <v>2</v>
       </c>
     </row>
@@ -3913,28 +3929,28 @@
       <c r="B54" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="10">
         <v>49</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="10">
         <v>20491803</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="10">
         <v>59</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="10">
         <v>1</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="10">
         <v>1</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J54" s="10">
+      <c r="J54" s="12">
         <v>6</v>
       </c>
     </row>
@@ -3945,28 +3961,28 @@
       <c r="B55" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="10">
         <v>48</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="10">
         <v>25409836</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="10">
         <v>36</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="10">
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="10">
         <v>2</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="10">
         <v>2</v>
       </c>
     </row>
@@ -3977,28 +3993,28 @@
       <c r="B56" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="10">
         <v>47</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="10">
         <v>11475409</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="10">
         <v>41</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="10">
         <v>1</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="10">
         <v>2</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="10">
         <v>2</v>
       </c>
     </row>
@@ -4009,28 +4025,28 @@
       <c r="B57" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="10">
         <v>44</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="10">
         <v>1639344</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="10">
         <v>3</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="10">
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="10">
         <v>3</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="10">
         <v>2</v>
       </c>
     </row>
@@ -4041,28 +4057,28 @@
       <c r="B58" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="10">
         <v>48</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="10">
         <v>19672131</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="10">
         <v>48</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="10">
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="10">
         <v>2</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J58" s="10">
+      <c r="J58" s="12">
         <v>3</v>
       </c>
     </row>
@@ -4073,28 +4089,28 @@
       <c r="B59" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="10">
         <v>40</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="10">
         <v>5737704</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="10">
         <v>31</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="10">
         <v>1</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="10">
         <v>3</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="10">
         <v>1</v>
       </c>
     </row>
@@ -4105,28 +4121,28 @@
       <c r="B60" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="10">
         <v>41</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="10">
         <v>34426229</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="10">
         <v>39</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="10">
         <v>1</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="10">
         <v>2</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J60" s="12">
         <v>4</v>
       </c>
     </row>
@@ -4137,28 +4153,28 @@
       <c r="B61" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="10">
         <v>48</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="10">
         <v>9836065</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="10">
         <v>36</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="10">
         <v>1</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="10">
         <v>2</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="10">
         <v>1</v>
       </c>
     </row>
@@ -4169,28 +4185,28 @@
       <c r="B62" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="10">
         <v>27</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="10">
         <v>10245901</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="10">
         <v>47</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="10">
         <v>1</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="10">
         <v>2</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J62" s="10">
+      <c r="J62" s="12">
         <v>5</v>
       </c>
     </row>
@@ -4201,28 +4217,28 @@
       <c r="B63" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="10">
         <v>46</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="10">
         <v>19672131</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="10">
         <v>52</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="10">
         <v>1</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="10">
         <v>1</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="10">
         <v>1</v>
       </c>
     </row>
@@ -4233,28 +4249,28 @@
       <c r="B64" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="10">
         <v>53</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="10">
         <v>12704918</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="10">
         <v>46</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="10">
         <v>1</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="10">
         <v>2</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="10">
         <v>2</v>
       </c>
     </row>
@@ -4265,28 +4281,28 @@
       <c r="B65" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="10">
         <v>54</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="10">
         <v>13114754</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="10">
         <v>59</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="10">
         <v>1</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="10">
         <v>1</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J65" s="10">
+      <c r="J65" s="12">
         <v>7</v>
       </c>
     </row>
@@ -4297,25 +4313,26 @@
       <c r="B66" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="10">
         <v>31</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="10">
         <v>10245901</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="10">
         <v>42</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="10">
         <v>1</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="H66" s="10"/>
       <c r="I66" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J66" s="10">
+      <c r="J66" s="12">
         <v>6</v>
       </c>
     </row>
@@ -4326,28 +4343,28 @@
       <c r="B67" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="10">
         <v>40</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="10">
         <v>15983606</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="10">
         <v>48</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="10">
         <v>1</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="10">
         <v>2</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="10">
         <v>1</v>
       </c>
     </row>
@@ -4358,28 +4375,28 @@
       <c r="B68" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="10">
         <v>30</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="10">
         <v>50000000</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="10">
         <v>83</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="10">
         <v>1</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="10">
         <v>1</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J68" s="10">
+      <c r="J68" s="12">
         <v>3</v>
       </c>
     </row>
@@ -4390,28 +4407,28 @@
       <c r="B69" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="10">
         <v>60</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="10">
         <v>14344262</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="10">
         <v>49</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="10">
         <v>1</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="10">
         <v>1</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J69" s="10">
+      <c r="J69" s="12">
         <v>7</v>
       </c>
     </row>
@@ -4422,28 +4439,28 @@
       <c r="B70" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="10">
         <v>20</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="10">
         <v>409836</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="10">
         <v>6</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="10">
         <v>0</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="10">
         <v>3</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="10">
         <v>0</v>
       </c>
     </row>
@@ -4454,28 +4471,28 @@
       <c r="B71" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="10">
         <v>28</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="10">
         <v>35245901</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="10">
         <v>68</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="10">
         <v>1</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="10">
         <v>1</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J71" s="10">
+      <c r="J71" s="12">
         <v>8</v>
       </c>
     </row>
@@ -4486,28 +4503,28 @@
       <c r="B72" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="10">
         <v>49</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="10">
         <v>11065573</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="10">
         <v>52</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="10">
         <v>1</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="10">
         <v>1</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72" s="10">
         <v>0</v>
       </c>
     </row>
@@ -4518,28 +4535,28 @@
       <c r="B73" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="10">
         <v>49</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="10">
         <v>7377049</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="10">
         <v>14</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="10">
         <v>1</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="10">
         <v>3</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J73" s="10">
+      <c r="J73" s="12">
         <v>3</v>
       </c>
     </row>
@@ -4550,28 +4567,28 @@
       <c r="B74" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="10">
         <v>48</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="10">
         <v>15983606</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="10">
         <v>46</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="10">
         <v>1</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74" s="10">
         <v>2</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J74" s="10">
         <v>0</v>
       </c>
     </row>
@@ -4582,28 +4599,28 @@
       <c r="B75" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="10">
         <v>54</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="10">
         <v>35245901</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="10">
         <v>24</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="10">
         <v>1</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="10">
         <v>3</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="10">
         <v>2</v>
       </c>
     </row>
@@ -4614,28 +4631,28 @@
       <c r="B76" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="10">
         <v>24</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="10">
         <v>9836065</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="10">
         <v>65</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="10">
         <v>1</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76" s="10">
         <v>1</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J76" s="10">
+      <c r="J76" s="12">
         <v>6</v>
       </c>
     </row>
@@ -4646,28 +4663,28 @@
       <c r="B77" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="10">
         <v>45</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="10">
         <v>45491803</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="10">
         <v>28</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="10">
         <v>1</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77" s="10">
         <v>3</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J77" s="10">
+      <c r="J77" s="12">
         <v>6</v>
       </c>
     </row>
@@ -4678,28 +4695,28 @@
       <c r="B78" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="10">
         <v>53</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="10">
         <v>13524590</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="10">
         <v>48</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="10">
         <v>1</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H78" s="10">
         <v>2</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J78" s="10">
+      <c r="J78" s="12">
         <v>4</v>
       </c>
     </row>
@@ -4710,28 +4727,28 @@
       <c r="B79" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="10">
         <v>38</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="10">
         <v>40163934</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="10">
         <v>91</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="10">
         <v>1</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79" s="10">
         <v>0</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J79" s="10">
+      <c r="J79" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4742,28 +4759,28 @@
       <c r="B80" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="10">
         <v>40</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="10">
         <v>22950819</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="10">
         <v>95</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="10">
         <v>1</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80" s="10">
         <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J80" s="10">
+      <c r="J80" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4774,28 +4791,28 @@
       <c r="B81" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="10">
         <v>35</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="10">
         <v>5327868</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="10">
         <v>61</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="10">
         <v>1</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H81" s="10">
         <v>1</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J81" s="10">
+      <c r="J81" s="12">
         <v>4</v>
       </c>
     </row>
@@ -4806,28 +4823,28 @@
       <c r="B82" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="10">
         <v>34</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="10">
         <v>25819672</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="10">
         <v>90</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="10">
         <v>1</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82" s="10">
         <v>1</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J82" s="10">
+      <c r="J82" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4838,28 +4855,28 @@
       <c r="B83" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="10">
         <v>55</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="10">
         <v>17213114</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="10">
         <v>58</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="10">
         <v>1</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83" s="10">
         <v>1</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J83" s="10">
+      <c r="J83" s="12">
         <v>3</v>
       </c>
     </row>
@@ -4870,25 +4887,26 @@
       <c r="B84" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="10">
         <v>31</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="10">
         <v>27049180</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="10">
         <v>93</v>
       </c>
+      <c r="F84" s="10"/>
       <c r="G84" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H84" s="10">
         <v>0</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J84" s="10">
+      <c r="J84" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4899,28 +4917,28 @@
       <c r="B85" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="10">
         <v>25</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="10">
         <v>23360655</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="10">
         <v>34</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="10">
         <v>0</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85" s="10">
         <v>3</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J85" s="10">
+      <c r="J85" s="12">
         <v>4</v>
       </c>
     </row>
@@ -4931,28 +4949,28 @@
       <c r="B86" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="10">
         <v>50</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="10">
         <v>10245901</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="10">
         <v>55</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="10">
         <v>1</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H86" s="10">
         <v>1</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J86" s="2">
+      <c r="J86" s="10">
         <v>2</v>
       </c>
     </row>
@@ -4963,28 +4981,28 @@
       <c r="B87" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="10">
         <v>46</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="10">
         <v>15983606</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="10">
         <v>44</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="10">
         <v>1</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87" s="10">
         <v>2</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J87" s="10">
+      <c r="J87" s="12">
         <v>6</v>
       </c>
     </row>
@@ -4995,28 +5013,28 @@
       <c r="B88" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="10">
         <v>42</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="10">
         <v>7786885</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="10">
         <v>17</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="10">
         <v>1</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H88" s="2">
+      <c r="H88" s="10">
         <v>3</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J88" s="10">
+      <c r="J88" s="12">
         <v>4</v>
       </c>
     </row>
@@ -5027,28 +5045,28 @@
       <c r="B89" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="10">
         <v>28</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="10">
         <v>25000000</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="10">
         <v>40</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="10">
         <v>1</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H89" s="10">
         <v>2</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J89" s="10">
+      <c r="J89" s="12">
         <v>5</v>
       </c>
     </row>
@@ -5059,28 +5077,28 @@
       <c r="B90" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="10">
         <v>45</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="10">
         <v>15983606</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="10">
         <v>53</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="10">
         <v>1</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90" s="10">
         <v>1</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J90" s="10">
+      <c r="J90" s="12">
         <v>3</v>
       </c>
     </row>
@@ -5091,28 +5109,28 @@
       <c r="B91" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="10">
         <v>28</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="10">
         <v>25409836</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="10">
         <v>97</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="10">
         <v>1</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H91" s="10">
         <v>0</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J91" s="10">
+      <c r="J91" s="12">
         <v>0</v>
       </c>
     </row>
@@ -5123,25 +5141,26 @@
       <c r="B92" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="10">
         <v>36</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="10">
         <v>29508196</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="10">
         <v>27</v>
       </c>
+      <c r="F92" s="10"/>
       <c r="G92" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H92" s="10">
         <v>3</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J92" s="10">
+      <c r="J92" s="12">
         <v>5</v>
       </c>
     </row>
@@ -5152,28 +5171,28 @@
       <c r="B93" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="10">
         <v>59</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="10">
         <v>22950819</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="10">
         <v>11</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="10">
         <v>1</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H93" s="10">
         <v>3</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J93" s="10">
+      <c r="J93" s="12">
         <v>7</v>
       </c>
     </row>
@@ -5184,28 +5203,28 @@
       <c r="B94" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="10">
         <v>48</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D94" s="10">
         <v>18852459</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="10">
         <v>42</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="10">
         <v>1</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94" s="10">
         <v>2</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J94" s="2">
+      <c r="J94" s="10">
         <v>1</v>
       </c>
     </row>
@@ -5216,28 +5235,28 @@
       <c r="B95" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="10">
         <v>40</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D95" s="10">
         <v>29508196</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="10">
         <v>13</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="10">
         <v>1</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H95" s="2">
+      <c r="H95" s="10">
         <v>3</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J95" s="2">
+      <c r="J95" s="10">
         <v>1</v>
       </c>
     </row>
@@ -5248,28 +5267,28 @@
       <c r="B96" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="10">
         <v>58</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D96" s="10">
         <v>29918032</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="10">
         <v>15</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="10">
         <v>1</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H96" s="2">
+      <c r="H96" s="10">
         <v>3</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J96" s="2">
+      <c r="J96" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5280,25 +5299,26 @@
       <c r="B97" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="10">
         <v>30</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="10">
         <v>29918032</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="10">
         <v>86</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="10">
         <v>1</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="H97" s="10"/>
       <c r="I97" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J97" s="10">
+      <c r="J97" s="12">
         <v>5</v>
       </c>
     </row>
@@ -5309,28 +5329,28 @@
       <c r="B98" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="10">
         <v>60</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="10">
         <v>14344262</v>
       </c>
-      <c r="E98" s="2">
-        <v>56</v>
-      </c>
-      <c r="F98" s="2">
+      <c r="E98" s="10">
+        <v>56</v>
+      </c>
+      <c r="F98" s="10">
         <v>1</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H98" s="10">
         <v>1</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J98" s="10">
+      <c r="J98" s="12">
         <v>7</v>
       </c>
     </row>
@@ -5341,25 +5361,26 @@
       <c r="B99" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="10">
         <v>51</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="10">
         <v>21311475</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="10">
         <v>43</v>
       </c>
+      <c r="F99" s="10"/>
       <c r="G99" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H99" s="10">
         <v>2</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J99" s="10">
+      <c r="J99" s="12">
         <v>3</v>
       </c>
     </row>
@@ -5370,28 +5391,28 @@
       <c r="B100" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="10">
         <v>40</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="10">
         <v>22131147</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="10">
         <v>58</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="10">
         <v>1</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H100" s="10">
         <v>1</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J100" s="2">
+      <c r="J100" s="10">
         <v>2</v>
       </c>
     </row>
@@ -5402,28 +5423,28 @@
       <c r="B101" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="10">
         <v>29</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D101" s="10">
         <v>10245901</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="10">
         <v>42</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="10">
         <v>1</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H101" s="10">
         <v>2</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J101" s="10">
+      <c r="J101" s="12">
         <v>5</v>
       </c>
     </row>
@@ -5434,28 +5455,28 @@
       <c r="B102" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="10">
         <v>43</v>
       </c>
-      <c r="D102" s="8">
+      <c r="D102" s="10">
         <v>13524590</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="10">
         <v>50</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="10">
         <v>1</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H102" s="2">
+      <c r="H102" s="10">
         <v>1</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J102" s="2">
+      <c r="J102" s="10">
         <v>1</v>
       </c>
     </row>
@@ -5466,28 +5487,28 @@
       <c r="B103" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="10">
         <v>34</v>
       </c>
-      <c r="D103" s="8">
+      <c r="D103" s="10">
         <v>25819672</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="10">
         <v>22</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="10">
         <v>1</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H103" s="10">
         <v>3</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J103" s="2">
+      <c r="J103" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5498,25 +5519,26 @@
       <c r="B104" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="10">
         <v>32</v>
       </c>
-      <c r="D104" s="8">
+      <c r="D104" s="10">
         <v>50000000</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="10">
         <v>18</v>
       </c>
+      <c r="F104" s="10"/>
       <c r="G104" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H104" s="2">
+      <c r="H104" s="10">
         <v>3</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J104" s="10">
+      <c r="J104" s="12">
         <v>6</v>
       </c>
     </row>
@@ -5527,28 +5549,28 @@
       <c r="B105" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="10">
         <v>42</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D105" s="10">
         <v>20491803</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="10">
         <v>43</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="10">
         <v>1</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H105" s="2">
+      <c r="H105" s="10">
         <v>2</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J105" s="10">
+      <c r="J105" s="12">
         <v>4</v>
       </c>
     </row>
@@ -5559,28 +5581,28 @@
       <c r="B106" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="10">
         <v>54</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D106" s="10">
         <v>5327868</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="10">
         <v>14</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="10">
         <v>1</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H106" s="10">
         <v>3</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J106" s="10">
+      <c r="J106" s="12">
         <v>4</v>
       </c>
     </row>
@@ -5591,25 +5613,26 @@
       <c r="B107" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="10">
         <v>35</v>
       </c>
-      <c r="D107" s="8">
+      <c r="D107" s="10">
         <v>3688524</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="10">
         <v>35</v>
       </c>
+      <c r="F107" s="10"/>
       <c r="G107" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H107" s="2">
+      <c r="H107" s="10">
         <v>2</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J107" s="10">
+      <c r="J107" s="12">
         <v>6</v>
       </c>
     </row>
@@ -5620,28 +5643,28 @@
       <c r="B108" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="10">
         <v>35</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D108" s="10">
         <v>1639344</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="10">
         <v>99</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="10">
         <v>1</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H108" s="2">
+      <c r="H108" s="10">
         <v>0</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J108" s="10">
+      <c r="J108" s="12">
         <v>0</v>
       </c>
     </row>
@@ -5652,28 +5675,28 @@
       <c r="B109" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="10">
         <v>19</v>
       </c>
-      <c r="D109" s="8">
+      <c r="D109" s="10">
         <v>20491803</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="10">
         <v>50</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="10">
         <v>0</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H109" s="2">
+      <c r="H109" s="10">
         <v>1</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J109" s="10">
+      <c r="J109" s="12">
         <v>8</v>
       </c>
     </row>
@@ -5684,28 +5707,28 @@
       <c r="B110" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="10">
         <v>32</v>
       </c>
-      <c r="D110" s="8">
+      <c r="D110" s="10">
         <v>18442622</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="10">
         <v>42</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="10">
         <v>1</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H110" s="2">
+      <c r="H110" s="10">
         <v>2</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J110" s="10">
+      <c r="J110" s="12">
         <v>7</v>
       </c>
     </row>
@@ -5716,28 +5739,28 @@
       <c r="B111" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="10">
         <v>20</v>
       </c>
-      <c r="D111" s="8">
+      <c r="D111" s="10">
         <v>2459016</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="10">
         <v>66</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="10">
         <v>0</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H111" s="2">
+      <c r="H111" s="10">
         <v>1</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J111" s="10">
+      <c r="J111" s="12">
         <v>7</v>
       </c>
     </row>
@@ -5748,28 +5771,28 @@
       <c r="B112" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="10">
         <v>21</v>
       </c>
-      <c r="D112" s="8">
+      <c r="D112" s="10">
         <v>6147540</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112" s="10">
         <v>73</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="10">
         <v>1</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H112" s="10">
         <v>1</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J112" s="10">
+      <c r="J112" s="12">
         <v>5</v>
       </c>
     </row>
@@ -5780,28 +5803,28 @@
       <c r="B113" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="10">
         <v>39</v>
       </c>
-      <c r="D113" s="8">
+      <c r="D113" s="10">
         <v>22131147</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="10">
         <v>91</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="10">
         <v>1</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H113" s="2">
+      <c r="H113" s="10">
         <v>0</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J113" s="10">
+      <c r="J113" s="12">
         <v>0</v>
       </c>
     </row>
@@ -5812,28 +5835,28 @@
       <c r="B114" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="10">
         <v>23</v>
       </c>
-      <c r="D114" s="8">
+      <c r="D114" s="10">
         <v>15983606</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114" s="10">
         <v>52</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114" s="10">
         <v>0</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H114" s="2">
+      <c r="H114" s="10">
         <v>1</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J114" s="10">
+      <c r="J114" s="12">
         <v>7</v>
       </c>
     </row>
@@ -5844,28 +5867,28 @@
       <c r="B115" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="10">
         <v>52</v>
       </c>
-      <c r="D115" s="8">
+      <c r="D115" s="10">
         <v>3278688</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="10">
         <v>29</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115" s="10">
         <v>1</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H115" s="2">
+      <c r="H115" s="10">
         <v>3</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J115" s="2">
+      <c r="J115" s="10">
         <v>0</v>
       </c>
     </row>
@@ -5876,28 +5899,28 @@
       <c r="B116" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="10">
         <v>47</v>
       </c>
-      <c r="D116" s="8">
+      <c r="D116" s="10">
         <v>19672131</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116" s="10">
         <v>50</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116" s="10">
         <v>1</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H116" s="2">
+      <c r="H116" s="10">
         <v>1</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J116" s="10">
+      <c r="J116" s="12">
         <v>3</v>
       </c>
     </row>
@@ -5908,28 +5931,28 @@
       <c r="B117" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="10">
         <v>47</v>
       </c>
-      <c r="D117" s="8">
+      <c r="D117" s="10">
         <v>22950819</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117" s="10">
         <v>9</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117" s="10">
         <v>1</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H117" s="2">
+      <c r="H117" s="10">
         <v>3</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J117" s="10">
+      <c r="J117" s="12">
         <v>4</v>
       </c>
     </row>
@@ -5940,28 +5963,28 @@
       <c r="B118" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="10">
         <v>52</v>
       </c>
-      <c r="D118" s="8">
+      <c r="D118" s="10">
         <v>19262295</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118" s="10">
         <v>59</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118" s="10">
         <v>1</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H118" s="2">
+      <c r="H118" s="10">
         <v>1</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J118" s="10">
+      <c r="J118" s="12">
         <v>8</v>
       </c>
     </row>
@@ -5969,28 +5992,28 @@
       <c r="A119" s="1">
         <v>218</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="10">
         <v>49</v>
       </c>
-      <c r="D119" s="8">
+      <c r="D119" s="10">
         <v>15983606</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119" s="10">
         <v>42</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119" s="10">
         <v>1</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H119" s="2">
+      <c r="H119" s="10">
         <v>2</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J119" s="2">
+      <c r="J119" s="10">
         <v>2</v>
       </c>
     </row>
@@ -6001,28 +6024,28 @@
       <c r="B120" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="10">
         <v>29</v>
       </c>
-      <c r="D120" s="8">
+      <c r="D120" s="10">
         <v>34016393</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120" s="10">
         <v>88</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120" s="10">
         <v>1</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H120" s="2">
+      <c r="H120" s="10">
         <v>1</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J120" s="10">
+      <c r="J120" s="12">
         <v>0</v>
       </c>
     </row>
@@ -6033,28 +6056,28 @@
       <c r="B121" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="10">
         <v>2</v>
       </c>
-      <c r="D121" s="8">
+      <c r="D121" s="10">
         <v>18032786</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121" s="10">
         <v>41</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121" s="10">
         <v>0</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H121" s="2">
+      <c r="H121" s="10">
         <v>2</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J121" s="2">
+      <c r="J121" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6065,28 +6088,28 @@
       <c r="B122" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="10">
         <v>53</v>
       </c>
-      <c r="D122" s="8">
+      <c r="D122" s="10">
         <v>7377049</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122" s="10">
         <v>4</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122" s="10">
         <v>1</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H122" s="2">
+      <c r="H122" s="10">
         <v>3</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J122" s="10">
+      <c r="J122" s="12">
         <v>3</v>
       </c>
     </row>
@@ -6097,28 +6120,28 @@
       <c r="B123" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="10">
         <v>50</v>
       </c>
-      <c r="D123" s="8">
+      <c r="D123" s="10">
         <v>11475409</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123" s="10">
         <v>45</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123" s="10">
         <v>1</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H123" s="2">
+      <c r="H123" s="10">
         <v>2</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J123" s="10">
+      <c r="J123" s="12">
         <v>7</v>
       </c>
     </row>
@@ -6129,28 +6152,28 @@
       <c r="B124" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="10">
         <v>34</v>
       </c>
-      <c r="D124" s="8">
+      <c r="D124" s="10">
         <v>36065573</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124" s="10">
         <v>23</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124" s="10">
         <v>1</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H124" s="2">
+      <c r="H124" s="10">
         <v>3</v>
       </c>
       <c r="I124" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J124" s="2">
+      <c r="J124" s="10">
         <v>1</v>
       </c>
     </row>
@@ -6161,28 +6184,28 @@
       <c r="B125" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="10">
         <v>19</v>
       </c>
-      <c r="D125" s="8">
+      <c r="D125" s="10">
         <v>24180327</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125" s="10">
         <v>10</v>
       </c>
-      <c r="F125" s="2">
+      <c r="F125" s="10">
         <v>0</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H125" s="2">
+      <c r="H125" s="10">
         <v>3</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J125" s="10">
+      <c r="J125" s="12">
         <v>5</v>
       </c>
     </row>
@@ -6193,28 +6216,28 @@
       <c r="B126" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="10">
         <v>41</v>
       </c>
-      <c r="D126" s="8">
+      <c r="D126" s="10">
         <v>36065573</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E126" s="10">
         <v>17</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126" s="10">
         <v>1</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H126" s="2">
+      <c r="H126" s="10">
         <v>3</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J126" s="10">
+      <c r="J126" s="12">
         <v>3</v>
       </c>
     </row>
@@ -6225,28 +6248,28 @@
       <c r="B127" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="10">
         <v>29</v>
       </c>
-      <c r="D127" s="8">
+      <c r="D127" s="10">
         <v>5327868</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127" s="10">
         <v>82</v>
       </c>
-      <c r="F127" s="2">
+      <c r="F127" s="10">
         <v>1</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H127" s="2">
+      <c r="H127" s="10">
         <v>1</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J127" s="2">
+      <c r="J127" s="10">
         <v>1</v>
       </c>
     </row>
@@ -6257,25 +6280,26 @@
       <c r="B128" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="10">
         <v>47</v>
       </c>
-      <c r="D128" s="8">
+      <c r="D128" s="10">
         <v>18442622</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E128" s="10">
         <v>101</v>
       </c>
+      <c r="F128" s="10"/>
       <c r="G128" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H128" s="2">
+      <c r="H128" s="10">
         <v>2</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J128" s="10">
+      <c r="J128" s="12">
         <v>7</v>
       </c>
     </row>
@@ -6286,28 +6310,28 @@
       <c r="B129" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="10">
         <v>43</v>
       </c>
-      <c r="D129" s="8">
+      <c r="D129" s="10">
         <v>13524590</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129" s="10">
         <v>51</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F129" s="10">
         <v>1</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H129" s="2">
+      <c r="H129" s="10">
         <v>1</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J129" s="10">
+      <c r="J129" s="12">
         <v>6</v>
       </c>
     </row>
@@ -6318,28 +6342,28 @@
       <c r="B130" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="10">
         <v>23</v>
       </c>
-      <c r="D130" s="8">
+      <c r="D130" s="10">
         <v>22540983</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130" s="10">
         <v>29</v>
       </c>
-      <c r="F130" s="2">
+      <c r="F130" s="10">
         <v>1</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H130" s="2">
+      <c r="H130" s="10">
         <v>3</v>
       </c>
       <c r="I130" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J130" s="10">
+      <c r="J130" s="12">
         <v>8</v>
       </c>
     </row>
@@ -6350,28 +6374,28 @@
       <c r="B131" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="10">
         <v>55</v>
       </c>
-      <c r="D131" s="8">
+      <c r="D131" s="10">
         <v>19672131</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="10">
         <v>43</v>
       </c>
-      <c r="F131" s="2">
+      <c r="F131" s="10">
         <v>1</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H131" s="2">
+      <c r="H131" s="10">
         <v>2</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J131" s="10">
+      <c r="J131" s="12">
         <v>5</v>
       </c>
     </row>
@@ -6382,28 +6406,28 @@
       <c r="B132" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="10">
         <v>44</v>
       </c>
-      <c r="D132" s="8">
+      <c r="D132" s="10">
         <v>25819672</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132" s="10">
         <v>20</v>
       </c>
-      <c r="F132" s="2">
+      <c r="F132" s="10">
         <v>1</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H132" s="2">
+      <c r="H132" s="10">
         <v>3</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J132" s="10">
+      <c r="J132" s="12">
         <v>9</v>
       </c>
     </row>
@@ -6414,28 +6438,28 @@
       <c r="B133" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="10">
         <v>18</v>
       </c>
-      <c r="D133" s="8">
+      <c r="D133" s="10">
         <v>7377049</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="10">
         <v>92</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133" s="10">
         <v>0</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H133" s="2">
+      <c r="H133" s="10">
         <v>0</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J133" s="10">
+      <c r="J133" s="12">
         <v>0</v>
       </c>
     </row>
@@ -6446,25 +6470,26 @@
       <c r="B134" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="10">
         <v>31</v>
       </c>
-      <c r="D134" s="8">
+      <c r="D134" s="10">
         <v>819672</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134" s="10">
         <v>40</v>
       </c>
-      <c r="F134" s="2">
+      <c r="F134" s="10">
         <v>1</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="H134" s="10"/>
       <c r="I134" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J134" s="10">
+      <c r="J134" s="12">
         <v>6</v>
       </c>
     </row>
@@ -6475,28 +6500,28 @@
       <c r="B135" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="10">
         <v>20</v>
       </c>
-      <c r="D135" s="8">
+      <c r="D135" s="10">
         <v>23770491</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135" s="10">
         <v>5</v>
       </c>
-      <c r="F135" s="2">
+      <c r="F135" s="10">
         <v>0</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H135" s="2">
+      <c r="H135" s="10">
         <v>3</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J135" s="10">
+      <c r="J135" s="12">
         <v>6</v>
       </c>
     </row>
@@ -6510,22 +6535,23 @@
       <c r="C136" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D136" s="8">
+      <c r="D136" s="10">
         <v>2459016</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E136" s="10">
         <v>35</v>
       </c>
+      <c r="F136" s="10"/>
       <c r="G136" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H136" s="2">
+      <c r="H136" s="10">
         <v>3</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J136" s="10">
+      <c r="J136" s="12">
         <v>5</v>
       </c>
     </row>
@@ -6533,28 +6559,28 @@
       <c r="A137" s="1">
         <v>236</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="10">
         <v>49</v>
       </c>
-      <c r="D137" s="8">
+      <c r="D137" s="10">
         <v>19262295</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137" s="10">
         <v>48</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137" s="10">
         <v>1</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H137" s="2">
+      <c r="H137" s="10">
         <v>2</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J137" s="2">
+      <c r="J137" s="10">
         <v>2</v>
       </c>
     </row>
@@ -6565,28 +6591,28 @@
       <c r="B138" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="10">
         <v>43</v>
       </c>
-      <c r="D138" s="8">
+      <c r="D138" s="10">
         <v>22950819</v>
       </c>
-      <c r="E138" s="2">
+      <c r="E138" s="10">
         <v>35</v>
       </c>
-      <c r="F138" s="2">
+      <c r="F138" s="10">
         <v>1</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H138" s="2">
+      <c r="H138" s="10">
         <v>2</v>
       </c>
       <c r="I138" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J138" s="10">
+      <c r="J138" s="12">
         <v>7</v>
       </c>
     </row>
@@ -6597,28 +6623,28 @@
       <c r="B139" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="10">
         <v>35</v>
       </c>
-      <c r="D139" s="8">
+      <c r="D139" s="10">
         <v>24180327</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139" s="10">
         <v>72</v>
       </c>
-      <c r="F139" s="2">
+      <c r="F139" s="10">
         <v>1</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H139" s="2">
+      <c r="H139" s="10">
         <v>1</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J139" s="10">
+      <c r="J139" s="12">
         <v>4</v>
       </c>
     </row>
@@ -6629,28 +6655,28 @@
       <c r="B140" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="10">
         <v>20</v>
       </c>
-      <c r="D140" s="8">
+      <c r="D140" s="10">
         <v>18852459</v>
       </c>
-      <c r="E140" s="2">
+      <c r="E140" s="10">
         <v>49</v>
       </c>
-      <c r="F140" s="2">
+      <c r="F140" s="10">
         <v>0</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H140" s="2">
+      <c r="H140" s="10">
         <v>2</v>
       </c>
       <c r="I140" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J140" s="10">
+      <c r="J140" s="12">
         <v>5</v>
       </c>
     </row>
@@ -6661,28 +6687,28 @@
       <c r="B141" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="10">
         <v>30</v>
       </c>
-      <c r="D141" s="8">
+      <c r="D141" s="10">
         <v>1639344</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141" s="10">
         <v>72</v>
       </c>
-      <c r="F141" s="2">
+      <c r="F141" s="10">
         <v>1</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H141" s="2">
+      <c r="H141" s="10">
         <v>1</v>
       </c>
       <c r="I141" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J141" s="10">
+      <c r="J141" s="12">
         <v>3</v>
       </c>
     </row>
@@ -6693,25 +6719,26 @@
       <c r="B142" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="10">
         <v>50</v>
       </c>
-      <c r="D142" s="8">
+      <c r="D142" s="10">
         <v>21311475</v>
       </c>
-      <c r="E142" s="2">
-        <v>57</v>
-      </c>
+      <c r="E142" s="10">
+        <v>57</v>
+      </c>
+      <c r="F142" s="10"/>
       <c r="G142" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H142" s="2">
+      <c r="H142" s="10">
         <v>1</v>
       </c>
       <c r="I142" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J142" s="2">
+      <c r="J142" s="10">
         <v>1</v>
       </c>
     </row>
@@ -6722,28 +6749,28 @@
       <c r="B143" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="10">
         <v>31</v>
       </c>
-      <c r="D143" s="8">
+      <c r="D143" s="10">
         <v>23360655</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="10">
         <v>71</v>
       </c>
-      <c r="F143" s="2">
+      <c r="F143" s="10">
         <v>1</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H143" s="2">
+      <c r="H143" s="10">
         <v>1</v>
       </c>
       <c r="I143" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J143" s="2">
+      <c r="J143" s="10">
         <v>2</v>
       </c>
     </row>
@@ -6754,28 +6781,28 @@
       <c r="B144" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="10">
         <v>25</v>
       </c>
-      <c r="D144" s="8">
+      <c r="D144" s="10">
         <v>3688524</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E144" s="10">
         <v>73</v>
       </c>
-      <c r="F144" s="2">
+      <c r="F144" s="10">
         <v>1</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H144" s="2">
+      <c r="H144" s="10">
         <v>1</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J144" s="10">
+      <c r="J144" s="12">
         <v>6</v>
       </c>
     </row>
@@ -6786,28 +6813,28 @@
       <c r="B145" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145" s="10">
         <v>42</v>
       </c>
-      <c r="D145" s="8">
+      <c r="D145" s="10">
         <v>29098360</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="10">
         <v>20</v>
       </c>
-      <c r="F145" s="2">
+      <c r="F145" s="10">
         <v>1</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H145" s="2">
+      <c r="H145" s="10">
         <v>3</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J145" s="10">
+      <c r="J145" s="12">
         <v>7</v>
       </c>
     </row>
@@ -6818,28 +6845,28 @@
       <c r="B146" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="10">
         <v>34</v>
       </c>
-      <c r="D146" s="8">
+      <c r="D146" s="10">
         <v>25819672</v>
       </c>
-      <c r="E146" s="2">
-        <v>1</v>
-      </c>
-      <c r="F146" s="2">
+      <c r="E146" s="10">
+        <v>1</v>
+      </c>
+      <c r="F146" s="10">
         <v>1</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H146" s="2">
+      <c r="H146" s="10">
         <v>3</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J146" s="2">
+      <c r="J146" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6850,28 +6877,28 @@
       <c r="B147" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147" s="10">
         <v>38</v>
       </c>
-      <c r="D147" s="8">
+      <c r="D147" s="10">
         <v>22950819</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147" s="10">
         <v>75</v>
       </c>
-      <c r="F147" s="2">
+      <c r="F147" s="10">
         <v>1</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H147" s="2">
+      <c r="H147" s="10">
         <v>1</v>
       </c>
       <c r="I147" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J147" s="10">
+      <c r="J147" s="12">
         <v>7</v>
       </c>
     </row>
@@ -6882,28 +6909,28 @@
       <c r="B148" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="10">
         <v>19</v>
       </c>
-      <c r="D148" s="8">
+      <c r="D148" s="10">
         <v>13524590</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148" s="10">
         <v>59</v>
       </c>
-      <c r="F148" s="2">
+      <c r="F148" s="10">
         <v>0</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H148" s="2">
+      <c r="H148" s="10">
         <v>1</v>
       </c>
       <c r="I148" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J148" s="10">
+      <c r="J148" s="12">
         <v>5</v>
       </c>
     </row>
@@ -6914,28 +6941,28 @@
       <c r="B149" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="10">
         <v>47</v>
       </c>
-      <c r="D149" s="8">
+      <c r="D149" s="10">
         <v>13934426</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149" s="10">
         <v>42</v>
       </c>
-      <c r="F149" s="2">
+      <c r="F149" s="10">
         <v>1</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H149" s="2">
+      <c r="H149" s="10">
         <v>2</v>
       </c>
       <c r="I149" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J149" s="2">
+      <c r="J149" s="10">
         <v>0</v>
       </c>
     </row>
@@ -6946,28 +6973,28 @@
       <c r="B150" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="10">
         <v>21</v>
       </c>
-      <c r="D150" s="8">
+      <c r="D150" s="10">
         <v>7377049</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150" s="10">
         <v>81</v>
       </c>
-      <c r="F150" s="2">
+      <c r="F150" s="10">
         <v>0</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H150" s="2">
+      <c r="H150" s="10">
         <v>1</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J150" s="10">
+      <c r="J150" s="12">
         <v>8</v>
       </c>
     </row>
@@ -6978,28 +7005,28 @@
       <c r="B151" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C151" s="2">
-        <v>56</v>
-      </c>
-      <c r="D151" s="8">
+      <c r="C151" s="10">
+        <v>56</v>
+      </c>
+      <c r="D151" s="10">
         <v>26229508</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="10">
         <v>35</v>
       </c>
-      <c r="F151" s="2">
+      <c r="F151" s="10">
         <v>1</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H151" s="2">
+      <c r="H151" s="10">
         <v>2</v>
       </c>
       <c r="I151" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J151" s="10">
+      <c r="J151" s="12">
         <v>8</v>
       </c>
     </row>
@@ -7010,28 +7037,28 @@
       <c r="B152" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="10">
         <v>37</v>
       </c>
-      <c r="D152" s="8">
+      <c r="D152" s="10">
         <v>25819672</v>
       </c>
-      <c r="E152" s="2">
-        <v>1</v>
-      </c>
-      <c r="F152" s="2">
+      <c r="E152" s="10">
+        <v>1</v>
+      </c>
+      <c r="F152" s="10">
         <v>1</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H152" s="2">
+      <c r="H152" s="10">
         <v>3</v>
       </c>
       <c r="I152" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J152" s="2">
+      <c r="J152" s="10">
         <v>1</v>
       </c>
     </row>
@@ -7042,25 +7069,26 @@
       <c r="B153" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="10">
         <v>30</v>
       </c>
-      <c r="D153" s="8">
+      <c r="D153" s="10">
         <v>34426229</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="10">
         <v>97</v>
       </c>
-      <c r="F153" s="2" t="s">
+      <c r="F153" s="10" t="s">
         <v>81</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="H153" s="10"/>
       <c r="I153" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J153" s="10">
+      <c r="J153" s="12">
         <v>0</v>
       </c>
     </row>
@@ -7071,28 +7099,28 @@
       <c r="B154" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="10">
         <v>59</v>
       </c>
-      <c r="D154" s="8">
+      <c r="D154" s="10">
         <v>31967213</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154" s="10">
         <v>14</v>
       </c>
-      <c r="F154" s="2">
+      <c r="F154" s="10">
         <v>1</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H154" s="2">
+      <c r="H154" s="10">
         <v>3</v>
       </c>
       <c r="I154" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J154" s="10">
+      <c r="J154" s="12">
         <v>5</v>
       </c>
     </row>
@@ -7103,28 +7131,28 @@
       <c r="B155" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="10">
         <v>26</v>
       </c>
-      <c r="D155" s="8">
+      <c r="D155" s="10">
         <v>19262295</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155" s="10">
         <v>55</v>
       </c>
-      <c r="F155" s="2">
+      <c r="F155" s="10">
         <v>1</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H155" s="2">
+      <c r="H155" s="10">
         <v>1</v>
       </c>
       <c r="I155" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J155" s="2">
+      <c r="J155" s="10">
         <v>0</v>
       </c>
     </row>
@@ -7135,28 +7163,28 @@
       <c r="B156" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="10">
         <v>35</v>
       </c>
-      <c r="D156" s="8">
+      <c r="D156" s="10">
         <v>31967213</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156" s="10">
         <v>90</v>
       </c>
-      <c r="F156" s="2">
+      <c r="F156" s="10">
         <v>1</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H156" s="2">
+      <c r="H156" s="10">
         <v>0</v>
       </c>
       <c r="I156" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J156" s="10">
+      <c r="J156" s="12">
         <v>0</v>
       </c>
     </row>
@@ -7167,28 +7195,28 @@
       <c r="B157" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157" s="10">
         <v>35</v>
       </c>
-      <c r="D157" s="8">
+      <c r="D157" s="10">
         <v>3278688</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="10">
         <v>98</v>
       </c>
-      <c r="F157" s="2">
+      <c r="F157" s="10">
         <v>1</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H157" s="2">
+      <c r="H157" s="10">
         <v>0</v>
       </c>
       <c r="I157" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J157" s="10">
+      <c r="J157" s="12">
         <v>0</v>
       </c>
     </row>
@@ -7199,28 +7227,28 @@
       <c r="B158" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="10">
         <v>36</v>
       </c>
-      <c r="D158" s="8">
+      <c r="D158" s="10">
         <v>9016393</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158" s="10">
         <v>26</v>
       </c>
-      <c r="F158" s="2">
+      <c r="F158" s="10">
         <v>1</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H158" s="2">
+      <c r="H158" s="10">
         <v>3</v>
       </c>
       <c r="I158" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J158" s="10">
+      <c r="J158" s="12">
         <v>3</v>
       </c>
     </row>
@@ -7231,28 +7259,28 @@
       <c r="B159" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159" s="10">
         <v>38</v>
       </c>
-      <c r="D159" s="8">
+      <c r="D159" s="10">
         <v>25819672</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159" s="10">
         <v>76</v>
       </c>
-      <c r="F159" s="2">
+      <c r="F159" s="10">
         <v>1</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H159" s="2">
+      <c r="H159" s="10">
         <v>1</v>
       </c>
       <c r="I159" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J159" s="2">
+      <c r="J159" s="10">
         <v>1</v>
       </c>
     </row>
@@ -7263,28 +7291,28 @@
       <c r="B160" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="10">
         <v>28</v>
       </c>
-      <c r="D160" s="8">
+      <c r="D160" s="10">
         <v>29508196</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160" s="10">
         <v>75</v>
       </c>
-      <c r="F160" s="2">
+      <c r="F160" s="10">
         <v>1</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H160" s="2">
+      <c r="H160" s="10">
         <v>1</v>
       </c>
       <c r="I160" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J160" s="10">
+      <c r="J160" s="12">
         <v>5</v>
       </c>
     </row>
@@ -7295,28 +7323,28 @@
       <c r="B161" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="10">
         <v>45</v>
       </c>
-      <c r="D161" s="8">
+      <c r="D161" s="10">
         <v>9426229</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161" s="10">
         <v>35</v>
       </c>
-      <c r="F161" s="2">
+      <c r="F161" s="10">
         <v>1</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H161" s="2">
+      <c r="H161" s="10">
         <v>2</v>
       </c>
       <c r="I161" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J161" s="2">
+      <c r="J161" s="10">
         <v>0</v>
       </c>
     </row>
@@ -7327,28 +7355,28 @@
       <c r="B162" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162" s="10">
         <v>32</v>
       </c>
-      <c r="D162" s="8">
+      <c r="D162" s="10">
         <v>24590163</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E162" s="10">
         <v>93</v>
       </c>
-      <c r="F162" s="2">
+      <c r="F162" s="10">
         <v>1</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H162" s="2">
+      <c r="H162" s="10">
         <v>0</v>
       </c>
       <c r="I162" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J162" s="10">
+      <c r="J162" s="12">
         <v>0</v>
       </c>
     </row>
@@ -7359,28 +7387,28 @@
       <c r="B163" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163" s="10">
         <v>19</v>
       </c>
-      <c r="D163" s="8">
+      <c r="D163" s="10">
         <v>20081967</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163" s="10">
         <v>46</v>
       </c>
-      <c r="F163" s="2">
+      <c r="F163" s="10">
         <v>0</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H163" s="2">
+      <c r="H163" s="10">
         <v>2</v>
       </c>
       <c r="I163" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J163" s="10">
+      <c r="J163" s="12">
         <v>8</v>
       </c>
     </row>
@@ -7391,28 +7419,28 @@
       <c r="B164" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164" s="10">
         <v>29</v>
       </c>
-      <c r="D164" s="8">
+      <c r="D164" s="10">
         <v>23770491</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164" s="10">
         <v>88</v>
       </c>
-      <c r="F164" s="2">
+      <c r="F164" s="10">
         <v>1</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H164" s="2">
+      <c r="H164" s="10">
         <v>1</v>
       </c>
       <c r="I164" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J164" s="10">
+      <c r="J164" s="12">
         <v>0</v>
       </c>
     </row>
@@ -7423,28 +7451,28 @@
       <c r="B165" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165" s="10">
         <v>58</v>
       </c>
-      <c r="D165" s="8">
+      <c r="D165" s="10">
         <v>13934426</v>
       </c>
-      <c r="E165" s="2">
+      <c r="E165" s="10">
         <v>55</v>
       </c>
-      <c r="F165" s="2">
+      <c r="F165" s="10">
         <v>1</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H165" s="2">
+      <c r="H165" s="10">
         <v>1</v>
       </c>
       <c r="I165" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J165" s="10">
+      <c r="J165" s="12">
         <v>4</v>
       </c>
     </row>
@@ -7455,28 +7483,28 @@
       <c r="B166" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166" s="10">
         <v>29</v>
       </c>
-      <c r="D166" s="8">
+      <c r="D166" s="10">
         <v>26229508</v>
       </c>
-      <c r="E166" s="2">
+      <c r="E166" s="10">
         <v>83</v>
       </c>
-      <c r="F166" s="2">
+      <c r="F166" s="10">
         <v>1</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H166" s="2">
+      <c r="H166" s="10">
         <v>1</v>
       </c>
       <c r="I166" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J166" s="2">
+      <c r="J166" s="10">
         <v>2</v>
       </c>
     </row>
@@ -7487,28 +7515,28 @@
       <c r="B167" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167" s="10">
         <v>54</v>
       </c>
-      <c r="D167" s="8">
+      <c r="D167" s="10">
         <v>18032786</v>
       </c>
-      <c r="E167" s="2">
+      <c r="E167" s="10">
         <v>55</v>
       </c>
-      <c r="F167" s="2">
+      <c r="F167" s="10">
         <v>1</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H167" s="2">
+      <c r="H167" s="10">
         <v>1</v>
       </c>
       <c r="I167" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J167" s="10">
+      <c r="J167" s="12">
         <v>3</v>
       </c>
     </row>
@@ -7519,28 +7547,28 @@
       <c r="B168" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168" s="10">
         <v>30</v>
       </c>
-      <c r="D168" s="8">
+      <c r="D168" s="10">
         <v>25819672</v>
       </c>
-      <c r="E168" s="2">
+      <c r="E168" s="10">
         <v>78</v>
       </c>
-      <c r="F168" s="2">
+      <c r="F168" s="10">
         <v>1</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H168" s="2">
+      <c r="H168" s="10">
         <v>1</v>
       </c>
       <c r="I168" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J168" s="10">
+      <c r="J168" s="12">
         <v>5</v>
       </c>
     </row>
@@ -7551,28 +7579,28 @@
       <c r="B169" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169" s="10">
         <v>32</v>
       </c>
-      <c r="D169" s="8">
+      <c r="D169" s="10">
         <v>29508196</v>
       </c>
-      <c r="E169" s="2">
+      <c r="E169" s="10">
         <v>63</v>
       </c>
-      <c r="F169" s="2">
+      <c r="F169" s="10">
         <v>1</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H169" s="2">
+      <c r="H169" s="10">
         <v>1</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J169" s="10">
+      <c r="J169" s="12">
         <v>5</v>
       </c>
     </row>
@@ -7583,28 +7611,28 @@
       <c r="B170" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170" s="10">
         <v>24</v>
       </c>
-      <c r="D170" s="8">
+      <c r="D170" s="10">
         <v>18442622</v>
       </c>
-      <c r="E170" s="2">
+      <c r="E170" s="10">
         <v>52</v>
       </c>
-      <c r="F170" s="2">
+      <c r="F170" s="10">
         <v>1</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H170" s="2">
+      <c r="H170" s="10">
         <v>1</v>
       </c>
       <c r="I170" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J170" s="10">
+      <c r="J170" s="12">
         <v>8</v>
       </c>
     </row>
@@ -7615,28 +7643,28 @@
       <c r="B171" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171" s="10">
         <v>32</v>
       </c>
-      <c r="D171" s="8">
+      <c r="D171" s="10">
         <v>45491803</v>
       </c>
-      <c r="E171" s="2">
+      <c r="E171" s="10">
         <v>74</v>
       </c>
-      <c r="F171" s="2">
+      <c r="F171" s="10">
         <v>1</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H171" s="2">
+      <c r="H171" s="10">
         <v>1</v>
       </c>
       <c r="I171" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J171" s="10">
+      <c r="J171" s="12">
         <v>3</v>
       </c>
     </row>
@@ -7647,28 +7675,28 @@
       <c r="B172" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172" s="10">
         <v>27</v>
       </c>
-      <c r="D172" s="8">
+      <c r="D172" s="10">
         <v>12704918</v>
       </c>
-      <c r="E172" s="2">
+      <c r="E172" s="10">
         <v>51</v>
       </c>
-      <c r="F172" s="2">
+      <c r="F172" s="10">
         <v>1</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H172" s="2">
+      <c r="H172" s="10">
         <v>1</v>
       </c>
       <c r="I172" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J172" s="10">
+      <c r="J172" s="12">
         <v>4</v>
       </c>
     </row>
@@ -7679,28 +7707,28 @@
       <c r="B173" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C173" s="2">
-        <v>57</v>
-      </c>
-      <c r="D173" s="8">
+      <c r="C173" s="10">
+        <v>57</v>
+      </c>
+      <c r="D173" s="10">
         <v>24590163</v>
       </c>
-      <c r="E173" s="2">
+      <c r="E173" s="10">
         <v>5</v>
       </c>
-      <c r="F173" s="2">
+      <c r="F173" s="10">
         <v>1</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H173" s="2">
+      <c r="H173" s="10">
         <v>3</v>
       </c>
       <c r="I173" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J173" s="10">
+      <c r="J173" s="12">
         <v>8</v>
       </c>
     </row>
@@ -7711,28 +7739,28 @@
       <c r="B174" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174" s="10">
         <v>50</v>
       </c>
-      <c r="D174" s="8">
+      <c r="D174" s="10">
         <v>17622950</v>
       </c>
-      <c r="E174" s="2">
+      <c r="E174" s="10">
         <v>46</v>
       </c>
-      <c r="F174" s="2">
+      <c r="F174" s="10">
         <v>1</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H174" s="2">
+      <c r="H174" s="10">
         <v>2</v>
       </c>
       <c r="I174" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J174" s="2">
+      <c r="J174" s="10">
         <v>1</v>
       </c>
     </row>
@@ -7743,28 +7771,28 @@
       <c r="B175" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175" s="10">
         <v>26</v>
       </c>
-      <c r="D175" s="8">
+      <c r="D175" s="10">
         <v>15983606</v>
       </c>
-      <c r="E175" s="2">
+      <c r="E175" s="10">
         <v>54</v>
       </c>
-      <c r="F175" s="2">
+      <c r="F175" s="10">
         <v>1</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H175" s="2">
+      <c r="H175" s="10">
         <v>1</v>
       </c>
       <c r="I175" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J175" s="10">
+      <c r="J175" s="12">
         <v>5</v>
       </c>
     </row>
@@ -7775,28 +7803,28 @@
       <c r="B176" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176" s="10">
         <v>36</v>
       </c>
-      <c r="D176" s="8">
+      <c r="D176" s="10">
         <v>36065573</v>
       </c>
-      <c r="E176" s="2">
+      <c r="E176" s="10">
         <v>85</v>
       </c>
-      <c r="F176" s="2">
+      <c r="F176" s="10">
         <v>1</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H176" s="2">
+      <c r="H176" s="10">
         <v>1</v>
       </c>
       <c r="I176" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J176" s="10">
+      <c r="J176" s="12">
         <v>4</v>
       </c>
     </row>
@@ -7807,28 +7835,28 @@
       <c r="B177" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177" s="10">
         <v>43</v>
       </c>
-      <c r="D177" s="8">
+      <c r="D177" s="10">
         <v>25819672</v>
       </c>
-      <c r="E177" s="2">
+      <c r="E177" s="10">
         <v>17</v>
       </c>
-      <c r="F177" s="2">
+      <c r="F177" s="10">
         <v>1</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H177" s="2">
+      <c r="H177" s="10">
         <v>3</v>
       </c>
       <c r="I177" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J177" s="10">
+      <c r="J177" s="12">
         <v>5</v>
       </c>
     </row>
@@ -7839,28 +7867,28 @@
       <c r="B178" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178" s="10">
         <v>25</v>
       </c>
-      <c r="D178" s="8">
+      <c r="D178" s="10">
         <v>25409836</v>
       </c>
-      <c r="E178" s="2">
+      <c r="E178" s="10">
         <v>12</v>
       </c>
-      <c r="F178" s="2">
+      <c r="F178" s="10">
         <v>1</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H178" s="2">
+      <c r="H178" s="10">
         <v>3</v>
       </c>
       <c r="I178" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J178" s="10">
+      <c r="J178" s="12">
         <v>8</v>
       </c>
     </row>
@@ -7871,28 +7899,28 @@
       <c r="B179" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179" s="10">
         <v>30</v>
       </c>
-      <c r="D179" s="8">
+      <c r="D179" s="10">
         <v>7786885</v>
       </c>
-      <c r="E179" s="2">
+      <c r="E179" s="10">
         <v>73</v>
       </c>
-      <c r="F179" s="2">
+      <c r="F179" s="10">
         <v>0</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H179" s="2">
+      <c r="H179" s="10">
         <v>1</v>
       </c>
       <c r="I179" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J179" s="10">
+      <c r="J179" s="12">
         <v>7</v>
       </c>
     </row>
@@ -7903,28 +7931,28 @@
       <c r="B180" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C180" s="10">
         <v>22</v>
       </c>
-      <c r="D180" s="8">
+      <c r="D180" s="10">
         <v>17213114</v>
       </c>
-      <c r="E180" s="2">
+      <c r="E180" s="10">
         <v>55</v>
       </c>
-      <c r="F180" s="2">
+      <c r="F180" s="10">
         <v>0</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H180" s="2">
+      <c r="H180" s="10">
         <v>1</v>
       </c>
       <c r="I180" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J180" s="10">
+      <c r="J180" s="12">
         <v>8</v>
       </c>
     </row>
@@ -7935,28 +7963,28 @@
       <c r="B181" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181" s="10">
         <v>32</v>
       </c>
-      <c r="D181" s="8">
+      <c r="D181" s="10">
         <v>23770491</v>
       </c>
-      <c r="E181" s="2">
+      <c r="E181" s="10">
         <v>73</v>
       </c>
-      <c r="F181" s="2">
+      <c r="F181" s="10">
         <v>1</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H181" s="2">
+      <c r="H181" s="10">
         <v>1</v>
       </c>
       <c r="I181" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J181" s="2">
+      <c r="J181" s="10">
         <v>1</v>
       </c>
     </row>
@@ -7967,28 +7995,28 @@
       <c r="B182" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182" s="10">
         <v>50</v>
       </c>
-      <c r="D182" s="8">
+      <c r="D182" s="10">
         <v>28688524</v>
       </c>
-      <c r="E182" s="2">
+      <c r="E182" s="10">
         <v>26</v>
       </c>
-      <c r="F182" s="2" t="s">
+      <c r="F182" s="10" t="s">
         <v>78</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H182" s="2">
+      <c r="H182" s="10">
         <v>3</v>
       </c>
       <c r="I182" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J182" s="10">
+      <c r="J182" s="12">
         <v>4</v>
       </c>
     </row>
@@ -7999,28 +8027,28 @@
       <c r="B183" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183" s="10">
         <v>32</v>
       </c>
-      <c r="D183" s="8">
+      <c r="D183" s="10">
         <v>25409836</v>
       </c>
-      <c r="E183" s="2">
+      <c r="E183" s="10">
         <v>74</v>
       </c>
-      <c r="F183" s="2">
+      <c r="F183" s="10">
         <v>1</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H183" s="2">
+      <c r="H183" s="10">
         <v>1</v>
       </c>
       <c r="I183" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J183" s="2">
+      <c r="J183" s="10">
         <v>2</v>
       </c>
     </row>
@@ -8031,28 +8059,28 @@
       <c r="B184" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C184" s="10">
         <v>47</v>
       </c>
-      <c r="D184" s="8">
+      <c r="D184" s="10">
         <v>43032786</v>
       </c>
-      <c r="E184" s="2">
+      <c r="E184" s="10">
         <v>16</v>
       </c>
-      <c r="F184" s="2">
+      <c r="F184" s="10">
         <v>1</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H184" s="2">
+      <c r="H184" s="10">
         <v>3</v>
       </c>
       <c r="I184" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J184" s="2">
+      <c r="J184" s="10">
         <v>2</v>
       </c>
     </row>
@@ -8063,28 +8091,28 @@
       <c r="B185" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185" s="10">
         <v>23</v>
       </c>
-      <c r="D185" s="8">
+      <c r="D185" s="10">
         <v>5737704</v>
       </c>
-      <c r="E185" s="2">
+      <c r="E185" s="10">
         <v>87</v>
       </c>
-      <c r="F185" s="2">
+      <c r="F185" s="10">
         <v>0</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H185" s="2">
+      <c r="H185" s="10">
         <v>1</v>
       </c>
       <c r="I185" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J185" s="10">
+      <c r="J185" s="12">
         <v>7</v>
       </c>
     </row>
@@ -8095,28 +8123,28 @@
       <c r="B186" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186" s="10">
         <v>33</v>
       </c>
-      <c r="D186" s="8">
+      <c r="D186" s="10">
         <v>40163934</v>
       </c>
-      <c r="E186" s="2">
+      <c r="E186" s="10">
         <v>8</v>
       </c>
-      <c r="F186" s="2">
+      <c r="F186" s="10">
         <v>1</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H186" s="2">
+      <c r="H186" s="10">
         <v>3</v>
       </c>
       <c r="I186" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J186" s="10">
+      <c r="J186" s="12">
         <v>3</v>
       </c>
     </row>
@@ -8127,28 +8155,28 @@
       <c r="B187" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187" s="10">
         <v>21</v>
       </c>
-      <c r="D187" s="8">
+      <c r="D187" s="10">
         <v>0</v>
       </c>
-      <c r="E187" s="2">
+      <c r="E187" s="10">
         <v>81</v>
       </c>
-      <c r="F187" s="2">
+      <c r="F187" s="10">
         <v>0</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H187" s="2">
+      <c r="H187" s="10">
         <v>1</v>
       </c>
       <c r="I187" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J187" s="2">
+      <c r="J187" s="10">
         <v>0</v>
       </c>
     </row>
@@ -8159,28 +8187,28 @@
       <c r="B188" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C188" s="10">
         <v>46</v>
       </c>
-      <c r="D188" s="8">
+      <c r="D188" s="10">
         <v>4098360</v>
       </c>
-      <c r="E188" s="2">
+      <c r="E188" s="10">
         <v>5</v>
       </c>
-      <c r="F188" s="2">
+      <c r="F188" s="10">
         <v>1</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H188" s="2">
+      <c r="H188" s="10">
         <v>3</v>
       </c>
       <c r="I188" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J188" s="10">
+      <c r="J188" s="12">
         <v>7</v>
       </c>
     </row>
@@ -8191,28 +8219,28 @@
       <c r="B189" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C189" s="10">
         <v>19</v>
       </c>
-      <c r="D189" s="8">
+      <c r="D189" s="10">
         <v>0</v>
       </c>
-      <c r="E189" s="2">
+      <c r="E189" s="10">
         <v>39</v>
       </c>
-      <c r="F189" s="2">
+      <c r="F189" s="10">
         <v>0</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H189" s="2">
+      <c r="H189" s="10">
         <v>2</v>
       </c>
       <c r="I189" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J189" s="10">
+      <c r="J189" s="12">
         <v>3</v>
       </c>
     </row>
@@ -8223,28 +8251,28 @@
       <c r="B190" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C190" s="2">
-        <v>56</v>
-      </c>
-      <c r="D190" s="8">
+      <c r="C190" s="10">
+        <v>56</v>
+      </c>
+      <c r="D190" s="10">
         <v>11885245</v>
       </c>
-      <c r="E190" s="2">
+      <c r="E190" s="10">
         <v>46</v>
       </c>
-      <c r="F190" s="2">
+      <c r="F190" s="10">
         <v>1</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H190" s="2">
+      <c r="H190" s="10">
         <v>2</v>
       </c>
       <c r="I190" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J190" s="10">
+      <c r="J190" s="12">
         <v>4</v>
       </c>
     </row>
@@ -8255,28 +8283,28 @@
       <c r="B191" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C191" s="2">
-        <v>57</v>
-      </c>
-      <c r="D191" s="8">
+      <c r="C191" s="10">
+        <v>57</v>
+      </c>
+      <c r="D191" s="10">
         <v>12704918</v>
       </c>
-      <c r="E191" s="2">
-        <v>56</v>
-      </c>
-      <c r="F191" s="2">
+      <c r="E191" s="10">
+        <v>56</v>
+      </c>
+      <c r="F191" s="10">
         <v>1</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H191" s="2">
+      <c r="H191" s="10">
         <v>1</v>
       </c>
       <c r="I191" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J191" s="10">
+      <c r="J191" s="12">
         <v>8</v>
       </c>
     </row>
@@ -8287,25 +8315,26 @@
       <c r="B192" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192" s="10">
         <v>52</v>
       </c>
-      <c r="D192" s="8">
+      <c r="D192" s="10">
         <v>29918032</v>
       </c>
-      <c r="E192" s="2">
+      <c r="E192" s="10">
         <v>13</v>
       </c>
+      <c r="F192" s="10"/>
       <c r="G192" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H192" s="2">
+      <c r="H192" s="10">
         <v>3</v>
       </c>
       <c r="I192" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J192" s="2">
+      <c r="J192" s="10">
         <v>2</v>
       </c>
     </row>
@@ -8316,28 +8345,28 @@
       <c r="B193" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193" s="10">
         <v>22</v>
       </c>
-      <c r="D193" s="8">
+      <c r="D193" s="10">
         <v>819672</v>
       </c>
-      <c r="E193" s="2">
+      <c r="E193" s="10">
         <v>76</v>
       </c>
-      <c r="F193" s="2">
+      <c r="F193" s="10">
         <v>1</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H193" s="2">
+      <c r="H193" s="10">
         <v>1</v>
       </c>
       <c r="I193" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J193" s="2">
+      <c r="J193" s="10">
         <v>0</v>
       </c>
     </row>
@@ -8348,28 +8377,28 @@
       <c r="B194" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194" s="10">
         <v>31</v>
       </c>
-      <c r="D194" s="8">
+      <c r="D194" s="10">
         <v>22540983</v>
       </c>
-      <c r="E194" s="2">
+      <c r="E194" s="10">
         <v>77</v>
       </c>
-      <c r="F194" s="2">
+      <c r="F194" s="10">
         <v>1</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H194" s="2">
+      <c r="H194" s="10">
         <v>1</v>
       </c>
       <c r="I194" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J194" s="10">
+      <c r="J194" s="12">
         <v>4</v>
       </c>
     </row>
@@ -8380,28 +8409,28 @@
       <c r="B195" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C195" s="10">
         <v>54</v>
       </c>
-      <c r="D195" s="8">
+      <c r="D195" s="10">
         <v>19672131</v>
       </c>
-      <c r="E195" s="2">
+      <c r="E195" s="10">
         <v>46</v>
       </c>
-      <c r="F195" s="2">
+      <c r="F195" s="10">
         <v>1</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H195" s="2">
+      <c r="H195" s="10">
         <v>2</v>
       </c>
       <c r="I195" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J195" s="10">
+      <c r="J195" s="12">
         <v>3</v>
       </c>
     </row>
@@ -8412,25 +8441,26 @@
       <c r="B196" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C196" s="10">
         <v>31</v>
       </c>
-      <c r="D196" s="8">
+      <c r="D196" s="10">
         <v>9836065</v>
       </c>
-      <c r="E196" s="2">
+      <c r="E196" s="10">
         <v>61</v>
       </c>
-      <c r="F196" s="2">
+      <c r="F196" s="10">
         <v>1</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="H196" s="10"/>
       <c r="I196" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J196" s="10">
+      <c r="J196" s="12">
         <v>3</v>
       </c>
     </row>
@@ -8441,28 +8471,28 @@
       <c r="B197" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C197" s="10">
         <v>31</v>
       </c>
-      <c r="D197" s="8">
+      <c r="D197" s="10">
         <v>4098360</v>
       </c>
-      <c r="E197" s="2">
+      <c r="E197" s="10">
         <v>73</v>
       </c>
-      <c r="F197" s="2">
+      <c r="F197" s="10">
         <v>1</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H197" s="2">
+      <c r="H197" s="10">
         <v>1</v>
       </c>
       <c r="I197" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J197" s="2">
+      <c r="J197" s="10">
         <v>0</v>
       </c>
     </row>
@@ -8473,28 +8503,28 @@
       <c r="B198" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C198" s="2">
-        <v>57</v>
-      </c>
-      <c r="D198" s="8">
+      <c r="C198" s="10">
+        <v>57</v>
+      </c>
+      <c r="D198" s="10">
         <v>15983606</v>
       </c>
-      <c r="E198" s="2">
+      <c r="E198" s="10">
         <v>51</v>
       </c>
-      <c r="F198" s="2">
+      <c r="F198" s="10">
         <v>1</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H198" s="2">
+      <c r="H198" s="10">
         <v>1</v>
       </c>
       <c r="I198" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J198" s="10">
+      <c r="J198" s="12">
         <v>5</v>
       </c>
     </row>
@@ -8505,28 +8535,28 @@
       <c r="B199" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199" s="10">
         <v>35</v>
       </c>
-      <c r="D199" s="8">
+      <c r="D199" s="10">
         <v>43032786</v>
       </c>
-      <c r="E199" s="2">
+      <c r="E199" s="10">
         <v>79</v>
       </c>
-      <c r="F199" s="2">
+      <c r="F199" s="10">
         <v>1</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H199" s="2">
+      <c r="H199" s="10">
         <v>1</v>
       </c>
       <c r="I199" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J199" s="10">
+      <c r="J199" s="12">
         <v>7</v>
       </c>
     </row>
@@ -8537,28 +8567,28 @@
       <c r="B200" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200" s="10">
         <v>23</v>
       </c>
-      <c r="D200" s="8">
+      <c r="D200" s="10">
         <v>1229508</v>
       </c>
-      <c r="E200" s="2">
+      <c r="E200" s="10">
         <v>94</v>
       </c>
-      <c r="F200" s="2">
+      <c r="F200" s="10">
         <v>1</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H200" s="2">
+      <c r="H200" s="10">
         <v>0</v>
       </c>
       <c r="I200" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J200" s="10">
+      <c r="J200" s="12">
         <v>0</v>
       </c>
     </row>
@@ -8569,32 +8599,33 @@
       <c r="B201" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C201" s="10">
         <v>50</v>
       </c>
-      <c r="D201" s="8">
+      <c r="D201" s="10">
         <v>1639344</v>
       </c>
-      <c r="E201" s="2">
+      <c r="E201" s="10">
         <v>14</v>
       </c>
-      <c r="F201" s="2">
+      <c r="F201" s="10">
         <v>1</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H201" s="2">
+      <c r="H201" s="10">
         <v>3</v>
       </c>
       <c r="I201" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J201" s="10">
+      <c r="J201" s="12">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="G1:G201" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Case-Study-02-MixITup-UIN-Contoh-Data.xlsx
+++ b/Case-Study-02-MixITup-UIN-Contoh-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5126827f0a5a21bd/Documents/GitHub/FlipClass-Data-Mining-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{445E6918-2B50-481E-ABB0-F7ABDF400C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92ACCE41-C284-459D-A128-453FB6B1B7CC}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{445E6918-2B50-481E-ABB0-F7ABDF400C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{346A8F01-C3AF-48BA-B17B-D6848668C58B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TheCase" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -358,9 +358,6 @@
   </si>
   <si>
     <t>Kota dimana customer mendafatarkan loyality programnya</t>
-  </si>
-  <si>
-    <t>Seberapa sering customer menggunakan promonya: 0 (tidak pernah), 1(jarang), 2(sedang), 3 (sering)</t>
   </si>
   <si>
     <r>
@@ -1745,7 +1742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -1756,7 +1753,7 @@
   <sheetData>
     <row r="3" spans="2:11" ht="60" x14ac:dyDescent="0.95">
       <c r="B3" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -1775,7 +1772,7 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
@@ -1790,7 +1787,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
@@ -1805,16 +1802,16 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
         <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
@@ -1822,7 +1819,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -1830,7 +1827,7 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -1862,7 +1859,7 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
@@ -1870,7 +1867,7 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
@@ -1918,7 +1915,7 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
@@ -1934,7 +1931,7 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
@@ -1950,7 +1947,7 @@
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
@@ -1969,7 +1966,7 @@
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
@@ -1977,7 +1974,7 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
@@ -1993,7 +1990,7 @@
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
@@ -2001,10 +1998,10 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
@@ -2062,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2074,7 +2071,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="36.6" x14ac:dyDescent="0.7">
       <c r="B2" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -2103,7 +2100,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -2111,7 +2108,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -2127,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -2143,7 +2140,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -2151,7 +2148,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -2159,52 +2156,52 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2219,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection sqref="A1:J201"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2274,7 +2271,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="10">
         <v>49</v>
@@ -2289,13 +2286,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" s="10">
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J2" s="10">
         <v>2</v>
@@ -2306,7 +2303,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="10">
         <v>32</v>
@@ -2321,13 +2318,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" s="10">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3" s="12">
         <v>6</v>
@@ -2338,7 +2335,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="10">
         <v>51</v>
@@ -2353,13 +2350,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" s="10">
         <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J4" s="12">
         <v>3</v>
@@ -2370,7 +2367,7 @@
         <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="10">
         <v>19</v>
@@ -2385,13 +2382,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" s="10">
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5" s="12">
         <v>7</v>
@@ -2402,7 +2399,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="10">
         <v>38</v>
@@ -2417,13 +2414,13 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="10">
         <v>2</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J6" s="12">
         <v>8</v>
@@ -2434,7 +2431,7 @@
         <v>106</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="10">
         <v>33</v>
@@ -2449,13 +2446,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="10">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" s="12">
         <v>0</v>
@@ -2466,7 +2463,7 @@
         <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="10">
         <v>27</v>
@@ -2481,13 +2478,13 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" s="10">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J8" s="12">
         <v>5</v>
@@ -2498,7 +2495,7 @@
         <v>108</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="10">
         <v>24</v>
@@ -2513,13 +2510,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J9" s="12">
         <v>3</v>
@@ -2530,7 +2527,7 @@
         <v>109</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="10">
         <v>32</v>
@@ -2545,13 +2542,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" s="10">
         <v>2</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J10" s="12">
         <v>6</v>
@@ -2562,7 +2559,7 @@
         <v>110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="10">
         <v>21</v>
@@ -2577,13 +2574,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="10">
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J11" s="12">
         <v>4</v>
@@ -2594,7 +2591,7 @@
         <v>111</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="10">
         <v>31</v>
@@ -2609,11 +2606,11 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J12" s="12">
         <v>6</v>
@@ -2624,7 +2621,7 @@
         <v>112</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="10">
         <v>36</v>
@@ -2639,19 +2636,19 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H13" s="10">
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J13" s="12">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2659,7 +2656,7 @@
         <v>113</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="10">
         <v>46</v>
@@ -2674,13 +2671,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="10">
         <v>3</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14" s="12">
         <v>7</v>
@@ -2691,7 +2688,7 @@
         <v>114</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="10">
         <v>60</v>
@@ -2706,13 +2703,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="10">
         <v>3</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J15" s="12">
         <v>4</v>
@@ -2723,7 +2720,7 @@
         <v>115</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="10">
         <v>58</v>
@@ -2738,13 +2735,13 @@
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="10">
         <v>5</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J16" s="12">
         <v>8</v>
@@ -2755,7 +2752,7 @@
         <v>116</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="10">
         <v>51</v>
@@ -2768,13 +2765,13 @@
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H17" s="10">
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J17" s="10">
         <v>2</v>
@@ -2785,7 +2782,7 @@
         <v>117</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="10">
         <v>47</v>
@@ -2800,13 +2797,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="10">
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J18" s="10">
         <v>1</v>
@@ -2817,7 +2814,7 @@
         <v>118</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="10">
         <v>32</v>
@@ -2832,13 +2829,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H19" s="10">
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J19" s="12">
         <v>8</v>
@@ -2849,7 +2846,7 @@
         <v>119</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="10">
         <v>45</v>
@@ -2864,13 +2861,13 @@
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="10">
         <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J20" s="12">
         <v>3</v>
@@ -2893,13 +2890,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="10">
         <v>3</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J21" s="12">
         <v>7</v>
@@ -2910,7 +2907,7 @@
         <v>121</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="10">
         <v>22</v>
@@ -2925,13 +2922,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H22" s="10">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J22" s="12">
         <v>6</v>
@@ -2942,7 +2939,7 @@
         <v>122</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="10">
         <v>18</v>
@@ -2957,13 +2954,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H23" s="10">
         <v>1</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J23" s="12">
         <v>4</v>
@@ -2974,7 +2971,7 @@
         <v>123</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="10">
         <v>59</v>
@@ -2989,13 +2986,13 @@
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" s="10">
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J24" s="10">
         <v>2</v>
@@ -3006,7 +3003,7 @@
         <v>124</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="10">
         <v>44</v>
@@ -3021,13 +3018,13 @@
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="10">
         <v>3</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J25" s="10">
         <v>2</v>
@@ -3038,7 +3035,7 @@
         <v>125</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="10">
         <v>39</v>
@@ -3053,13 +3050,13 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H26" s="10">
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J26" s="12">
         <v>8</v>
@@ -3070,7 +3067,7 @@
         <v>126</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="10">
         <v>21</v>
@@ -3085,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H27" s="10">
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J27" s="10">
         <v>0</v>
@@ -3102,7 +3099,7 @@
         <v>127</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="10">
         <v>35</v>
@@ -3117,13 +3114,13 @@
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H28" s="10">
         <v>3</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J28" s="10">
         <v>1</v>
@@ -3134,7 +3131,7 @@
         <v>128</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="10">
         <v>38</v>
@@ -3149,13 +3146,13 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H29" s="10">
         <v>1</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J29" s="10">
         <v>1</v>
@@ -3166,7 +3163,7 @@
         <v>129</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="10">
         <v>20</v>
@@ -3181,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="10">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H30" s="10">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J30" s="12">
         <v>4</v>
@@ -3198,7 +3195,7 @@
         <v>130</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="10">
         <v>30</v>
@@ -3213,13 +3210,13 @@
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H31" s="10">
         <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J31" s="12">
         <v>8</v>
@@ -3230,7 +3227,7 @@
         <v>131</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="10">
         <v>24</v>
@@ -3245,13 +3242,13 @@
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H32" s="10">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J32" s="12">
         <v>0</v>
@@ -3262,7 +3259,7 @@
         <v>132</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="10">
         <v>27</v>
@@ -3277,13 +3274,13 @@
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H33" s="10">
         <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J33" s="10">
         <v>0</v>
@@ -3294,7 +3291,7 @@
         <v>133</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="10">
         <v>36</v>
@@ -3309,13 +3306,13 @@
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H34" s="10">
         <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J34" s="12">
         <v>6</v>
@@ -3326,7 +3323,7 @@
         <v>134</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="10">
         <v>38</v>
@@ -3339,13 +3336,13 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" s="10">
         <v>2</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J35" s="12">
         <v>7</v>
@@ -3356,7 +3353,7 @@
         <v>135</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="10">
         <v>23</v>
@@ -3371,13 +3368,13 @@
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H36" s="10">
         <v>2</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J36" s="10">
         <v>1</v>
@@ -3388,7 +3385,7 @@
         <v>136</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="10">
         <v>19</v>
@@ -3403,13 +3400,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H37" s="10">
         <v>3</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J37" s="12">
         <v>5</v>
@@ -3420,7 +3417,7 @@
         <v>137</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="10">
         <v>27</v>
@@ -3435,13 +3432,13 @@
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H38" s="10">
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J38" s="10">
         <v>0</v>
@@ -3452,7 +3449,7 @@
         <v>138</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="10">
         <v>27</v>
@@ -3467,13 +3464,13 @@
         <v>1</v>
       </c>
       <c r="G39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="10">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H39" s="10">
-        <v>1</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J39" s="12">
         <v>0</v>
@@ -3484,7 +3481,7 @@
         <v>139</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="10">
         <v>48</v>
@@ -3499,13 +3496,13 @@
         <v>1</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H40" s="10">
         <v>1</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J40" s="12">
         <v>6</v>
@@ -3516,7 +3513,7 @@
         <v>140</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="10">
         <v>19</v>
@@ -3531,13 +3528,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H41" s="10">
         <v>1</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J41" s="12">
         <v>4</v>
@@ -3548,7 +3545,7 @@
         <v>141</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="10">
         <v>37</v>
@@ -3563,13 +3560,13 @@
         <v>1</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H42" s="10">
         <v>3</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J42" s="10">
         <v>0</v>
@@ -3580,7 +3577,7 @@
         <v>142</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="10">
         <v>33</v>
@@ -3595,13 +3592,13 @@
         <v>1</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H43" s="10">
         <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J43" s="10">
         <v>0</v>
@@ -3612,7 +3609,7 @@
         <v>143</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="10">
         <v>39</v>
@@ -3625,13 +3622,13 @@
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H44" s="10">
         <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J44" s="12">
         <v>0</v>
@@ -3642,7 +3639,7 @@
         <v>144</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="10">
         <v>37</v>
@@ -3657,13 +3654,13 @@
         <v>1</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H45" s="10">
         <v>3</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J45" s="10">
         <v>2</v>
@@ -3674,7 +3671,7 @@
         <v>145</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="10">
         <v>32</v>
@@ -3689,13 +3686,13 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H46" s="10">
         <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J46" s="10">
         <v>1</v>
@@ -3706,7 +3703,7 @@
         <v>146</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="10">
         <v>59</v>
@@ -3721,13 +3718,13 @@
         <v>1</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H47" s="10">
         <v>2</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J47" s="12">
         <v>8</v>
@@ -3738,7 +3735,7 @@
         <v>147</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="10">
         <v>18</v>
@@ -3753,13 +3750,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H48" s="10">
         <v>2</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J48" s="10">
         <v>0</v>
@@ -3782,13 +3779,13 @@
         <v>1</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H49" s="10">
         <v>3</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J49" s="12">
         <v>6</v>
@@ -3799,7 +3796,7 @@
         <v>149</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="10">
         <v>40</v>
@@ -3814,13 +3811,13 @@
         <v>1</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H50" s="10">
         <v>2</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J50" s="12">
         <v>8</v>
@@ -3831,7 +3828,7 @@
         <v>150</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="10">
         <v>34</v>
@@ -3846,13 +3843,13 @@
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H51" s="10">
         <v>1</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J51" s="10">
         <v>1</v>
@@ -3863,7 +3860,7 @@
         <v>151</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="10">
         <v>49</v>
@@ -3878,13 +3875,13 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H52" s="10">
         <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J52" s="12">
         <v>6</v>
@@ -3895,7 +3892,7 @@
         <v>152</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="10">
         <v>23</v>
@@ -3910,13 +3907,13 @@
         <v>1</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H53" s="10">
         <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J53" s="10">
         <v>2</v>
@@ -3927,7 +3924,7 @@
         <v>153</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="10">
         <v>49</v>
@@ -3942,13 +3939,13 @@
         <v>1</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H54" s="10">
         <v>1</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J54" s="12">
         <v>6</v>
@@ -3959,7 +3956,7 @@
         <v>154</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="10">
         <v>48</v>
@@ -3974,13 +3971,13 @@
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H55" s="10">
         <v>2</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J55" s="10">
         <v>2</v>
@@ -3991,7 +3988,7 @@
         <v>155</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="10">
         <v>47</v>
@@ -4006,13 +4003,13 @@
         <v>1</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H56" s="10">
         <v>2</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J56" s="10">
         <v>2</v>
@@ -4023,7 +4020,7 @@
         <v>156</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" s="10">
         <v>44</v>
@@ -4038,13 +4035,13 @@
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H57" s="10">
         <v>3</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J57" s="10">
         <v>2</v>
@@ -4055,7 +4052,7 @@
         <v>157</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="10">
         <v>48</v>
@@ -4070,13 +4067,13 @@
         <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H58" s="10">
         <v>2</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J58" s="12">
         <v>3</v>
@@ -4087,7 +4084,7 @@
         <v>158</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C59" s="10">
         <v>40</v>
@@ -4102,13 +4099,13 @@
         <v>1</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H59" s="10">
         <v>3</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J59" s="10">
         <v>1</v>
@@ -4119,7 +4116,7 @@
         <v>159</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="10">
         <v>41</v>
@@ -4134,13 +4131,13 @@
         <v>1</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H60" s="10">
         <v>2</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J60" s="12">
         <v>4</v>
@@ -4151,7 +4148,7 @@
         <v>160</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" s="10">
         <v>48</v>
@@ -4166,13 +4163,13 @@
         <v>1</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H61" s="10">
         <v>2</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J61" s="10">
         <v>1</v>
@@ -4183,7 +4180,7 @@
         <v>161</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C62" s="10">
         <v>27</v>
@@ -4198,13 +4195,13 @@
         <v>1</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H62" s="10">
         <v>2</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J62" s="12">
         <v>5</v>
@@ -4215,7 +4212,7 @@
         <v>162</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C63" s="10">
         <v>46</v>
@@ -4230,13 +4227,13 @@
         <v>1</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H63" s="10">
         <v>1</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J63" s="10">
         <v>1</v>
@@ -4247,7 +4244,7 @@
         <v>163</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C64" s="10">
         <v>53</v>
@@ -4262,13 +4259,13 @@
         <v>1</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H64" s="10">
         <v>2</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J64" s="10">
         <v>2</v>
@@ -4279,7 +4276,7 @@
         <v>164</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C65" s="10">
         <v>54</v>
@@ -4294,13 +4291,13 @@
         <v>1</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H65" s="10">
         <v>1</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J65" s="12">
         <v>7</v>
@@ -4311,7 +4308,7 @@
         <v>165</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C66" s="10">
         <v>31</v>
@@ -4326,11 +4323,11 @@
         <v>1</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H66" s="10"/>
       <c r="I66" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J66" s="12">
         <v>6</v>
@@ -4341,7 +4338,7 @@
         <v>166</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C67" s="10">
         <v>40</v>
@@ -4356,13 +4353,13 @@
         <v>1</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H67" s="10">
         <v>2</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J67" s="10">
         <v>1</v>
@@ -4373,7 +4370,7 @@
         <v>167</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C68" s="10">
         <v>30</v>
@@ -4388,13 +4385,13 @@
         <v>1</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H68" s="10">
         <v>1</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J68" s="12">
         <v>3</v>
@@ -4405,7 +4402,7 @@
         <v>168</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C69" s="10">
         <v>60</v>
@@ -4420,13 +4417,13 @@
         <v>1</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H69" s="10">
         <v>1</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J69" s="12">
         <v>7</v>
@@ -4437,7 +4434,7 @@
         <v>169</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70" s="10">
         <v>20</v>
@@ -4452,13 +4449,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H70" s="10">
         <v>3</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J70" s="10">
         <v>0</v>
@@ -4469,7 +4466,7 @@
         <v>170</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C71" s="10">
         <v>28</v>
@@ -4484,13 +4481,13 @@
         <v>1</v>
       </c>
       <c r="G71" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H71" s="10">
+        <v>1</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H71" s="10">
-        <v>1</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J71" s="12">
         <v>8</v>
@@ -4501,7 +4498,7 @@
         <v>171</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C72" s="10">
         <v>49</v>
@@ -4516,13 +4513,13 @@
         <v>1</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H72" s="10">
         <v>1</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J72" s="10">
         <v>0</v>
@@ -4533,7 +4530,7 @@
         <v>172</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C73" s="10">
         <v>49</v>
@@ -4548,13 +4545,13 @@
         <v>1</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H73" s="10">
         <v>3</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J73" s="12">
         <v>3</v>
@@ -4565,7 +4562,7 @@
         <v>173</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C74" s="10">
         <v>48</v>
@@ -4580,13 +4577,13 @@
         <v>1</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H74" s="10">
         <v>2</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J74" s="10">
         <v>0</v>
@@ -4597,7 +4594,7 @@
         <v>174</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C75" s="10">
         <v>54</v>
@@ -4612,13 +4609,13 @@
         <v>1</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H75" s="10">
         <v>3</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J75" s="10">
         <v>2</v>
@@ -4629,7 +4626,7 @@
         <v>175</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C76" s="10">
         <v>24</v>
@@ -4644,13 +4641,13 @@
         <v>1</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H76" s="10">
         <v>1</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J76" s="12">
         <v>6</v>
@@ -4661,7 +4658,7 @@
         <v>176</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C77" s="10">
         <v>45</v>
@@ -4676,13 +4673,13 @@
         <v>1</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H77" s="10">
         <v>3</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J77" s="12">
         <v>6</v>
@@ -4693,7 +4690,7 @@
         <v>177</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C78" s="10">
         <v>53</v>
@@ -4708,13 +4705,13 @@
         <v>1</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H78" s="10">
         <v>2</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J78" s="12">
         <v>4</v>
@@ -4725,7 +4722,7 @@
         <v>178</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C79" s="10">
         <v>38</v>
@@ -4740,13 +4737,13 @@
         <v>1</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H79" s="10">
         <v>0</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J79" s="12">
         <v>0</v>
@@ -4757,7 +4754,7 @@
         <v>179</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C80" s="10">
         <v>40</v>
@@ -4772,13 +4769,13 @@
         <v>1</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H80" s="10">
         <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J80" s="12">
         <v>0</v>
@@ -4789,7 +4786,7 @@
         <v>180</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C81" s="10">
         <v>35</v>
@@ -4804,13 +4801,13 @@
         <v>1</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H81" s="10">
         <v>1</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J81" s="12">
         <v>4</v>
@@ -4821,7 +4818,7 @@
         <v>181</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C82" s="10">
         <v>34</v>
@@ -4836,13 +4833,13 @@
         <v>1</v>
       </c>
       <c r="G82" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H82" s="10">
+        <v>1</v>
+      </c>
+      <c r="I82" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H82" s="10">
-        <v>1</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J82" s="12">
         <v>0</v>
@@ -4853,7 +4850,7 @@
         <v>182</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C83" s="10">
         <v>55</v>
@@ -4868,13 +4865,13 @@
         <v>1</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H83" s="10">
         <v>1</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J83" s="12">
         <v>3</v>
@@ -4885,7 +4882,7 @@
         <v>183</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C84" s="10">
         <v>31</v>
@@ -4898,13 +4895,13 @@
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H84" s="10">
         <v>0</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J84" s="12">
         <v>0</v>
@@ -4915,7 +4912,7 @@
         <v>184</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C85" s="10">
         <v>25</v>
@@ -4930,13 +4927,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H85" s="10">
         <v>3</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J85" s="12">
         <v>4</v>
@@ -4947,7 +4944,7 @@
         <v>185</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C86" s="10">
         <v>50</v>
@@ -4962,13 +4959,13 @@
         <v>1</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H86" s="10">
         <v>1</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J86" s="10">
         <v>2</v>
@@ -4979,7 +4976,7 @@
         <v>186</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C87" s="10">
         <v>46</v>
@@ -4994,13 +4991,13 @@
         <v>1</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H87" s="10">
         <v>2</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J87" s="12">
         <v>6</v>
@@ -5011,7 +5008,7 @@
         <v>187</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C88" s="10">
         <v>42</v>
@@ -5026,13 +5023,13 @@
         <v>1</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H88" s="10">
         <v>3</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J88" s="12">
         <v>4</v>
@@ -5043,7 +5040,7 @@
         <v>188</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C89" s="10">
         <v>28</v>
@@ -5058,13 +5055,13 @@
         <v>1</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H89" s="10">
         <v>2</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J89" s="12">
         <v>5</v>
@@ -5075,7 +5072,7 @@
         <v>189</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C90" s="10">
         <v>45</v>
@@ -5090,13 +5087,13 @@
         <v>1</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H90" s="10">
         <v>1</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J90" s="12">
         <v>3</v>
@@ -5107,7 +5104,7 @@
         <v>190</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C91" s="10">
         <v>28</v>
@@ -5122,13 +5119,13 @@
         <v>1</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H91" s="10">
         <v>0</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J91" s="12">
         <v>0</v>
@@ -5139,7 +5136,7 @@
         <v>191</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C92" s="10">
         <v>36</v>
@@ -5152,13 +5149,13 @@
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H92" s="10">
         <v>3</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J92" s="12">
         <v>5</v>
@@ -5169,7 +5166,7 @@
         <v>192</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C93" s="10">
         <v>59</v>
@@ -5184,13 +5181,13 @@
         <v>1</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H93" s="10">
         <v>3</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J93" s="12">
         <v>7</v>
@@ -5201,7 +5198,7 @@
         <v>193</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C94" s="10">
         <v>48</v>
@@ -5216,13 +5213,13 @@
         <v>1</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H94" s="10">
         <v>2</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J94" s="10">
         <v>1</v>
@@ -5233,7 +5230,7 @@
         <v>194</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C95" s="10">
         <v>40</v>
@@ -5248,13 +5245,13 @@
         <v>1</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H95" s="10">
         <v>3</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J95" s="10">
         <v>1</v>
@@ -5265,7 +5262,7 @@
         <v>195</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C96" s="10">
         <v>58</v>
@@ -5280,13 +5277,13 @@
         <v>1</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H96" s="10">
         <v>3</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J96" s="10">
         <v>0</v>
@@ -5297,7 +5294,7 @@
         <v>196</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C97" s="10">
         <v>30</v>
@@ -5312,11 +5309,11 @@
         <v>1</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H97" s="10"/>
       <c r="I97" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J97" s="12">
         <v>5</v>
@@ -5327,7 +5324,7 @@
         <v>197</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C98" s="10">
         <v>60</v>
@@ -5342,13 +5339,13 @@
         <v>1</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H98" s="10">
         <v>1</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J98" s="12">
         <v>7</v>
@@ -5359,7 +5356,7 @@
         <v>198</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C99" s="10">
         <v>51</v>
@@ -5372,13 +5369,13 @@
       </c>
       <c r="F99" s="10"/>
       <c r="G99" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H99" s="10">
         <v>2</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J99" s="12">
         <v>3</v>
@@ -5389,7 +5386,7 @@
         <v>199</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C100" s="10">
         <v>40</v>
@@ -5404,13 +5401,13 @@
         <v>1</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H100" s="10">
         <v>1</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J100" s="10">
         <v>2</v>
@@ -5421,7 +5418,7 @@
         <v>200</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C101" s="10">
         <v>29</v>
@@ -5436,13 +5433,13 @@
         <v>1</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H101" s="10">
         <v>2</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J101" s="12">
         <v>5</v>
@@ -5453,7 +5450,7 @@
         <v>201</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C102" s="10">
         <v>43</v>
@@ -5468,13 +5465,13 @@
         <v>1</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H102" s="10">
         <v>1</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J102" s="10">
         <v>1</v>
@@ -5485,7 +5482,7 @@
         <v>202</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C103" s="10">
         <v>34</v>
@@ -5500,13 +5497,13 @@
         <v>1</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H103" s="10">
         <v>3</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J103" s="10">
         <v>0</v>
@@ -5517,7 +5514,7 @@
         <v>203</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C104" s="10">
         <v>32</v>
@@ -5530,13 +5527,13 @@
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H104" s="10">
         <v>3</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J104" s="12">
         <v>6</v>
@@ -5547,7 +5544,7 @@
         <v>204</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C105" s="10">
         <v>42</v>
@@ -5562,13 +5559,13 @@
         <v>1</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H105" s="10">
         <v>2</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J105" s="12">
         <v>4</v>
@@ -5579,7 +5576,7 @@
         <v>205</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C106" s="10">
         <v>54</v>
@@ -5594,13 +5591,13 @@
         <v>1</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H106" s="10">
         <v>3</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J106" s="12">
         <v>4</v>
@@ -5611,7 +5608,7 @@
         <v>206</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C107" s="10">
         <v>35</v>
@@ -5624,13 +5621,13 @@
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H107" s="10">
         <v>2</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J107" s="12">
         <v>6</v>
@@ -5641,7 +5638,7 @@
         <v>207</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C108" s="10">
         <v>35</v>
@@ -5656,13 +5653,13 @@
         <v>1</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H108" s="10">
         <v>0</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J108" s="12">
         <v>0</v>
@@ -5673,7 +5670,7 @@
         <v>208</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C109" s="10">
         <v>19</v>
@@ -5688,13 +5685,13 @@
         <v>0</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H109" s="10">
         <v>1</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J109" s="12">
         <v>8</v>
@@ -5705,7 +5702,7 @@
         <v>209</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C110" s="10">
         <v>32</v>
@@ -5720,13 +5717,13 @@
         <v>1</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H110" s="10">
         <v>2</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J110" s="12">
         <v>7</v>
@@ -5737,7 +5734,7 @@
         <v>210</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C111" s="10">
         <v>20</v>
@@ -5752,13 +5749,13 @@
         <v>0</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H111" s="10">
         <v>1</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J111" s="12">
         <v>7</v>
@@ -5769,7 +5766,7 @@
         <v>211</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C112" s="10">
         <v>21</v>
@@ -5784,13 +5781,13 @@
         <v>1</v>
       </c>
       <c r="G112" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H112" s="10">
+        <v>1</v>
+      </c>
+      <c r="I112" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H112" s="10">
-        <v>1</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J112" s="12">
         <v>5</v>
@@ -5801,7 +5798,7 @@
         <v>212</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C113" s="10">
         <v>39</v>
@@ -5816,13 +5813,13 @@
         <v>1</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H113" s="10">
         <v>0</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J113" s="12">
         <v>0</v>
@@ -5833,7 +5830,7 @@
         <v>213</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C114" s="10">
         <v>23</v>
@@ -5848,13 +5845,13 @@
         <v>0</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H114" s="10">
         <v>1</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J114" s="12">
         <v>7</v>
@@ -5865,7 +5862,7 @@
         <v>214</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C115" s="10">
         <v>52</v>
@@ -5880,13 +5877,13 @@
         <v>1</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H115" s="10">
         <v>3</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J115" s="10">
         <v>0</v>
@@ -5897,7 +5894,7 @@
         <v>215</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C116" s="10">
         <v>47</v>
@@ -5912,13 +5909,13 @@
         <v>1</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H116" s="10">
         <v>1</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J116" s="12">
         <v>3</v>
@@ -5929,7 +5926,7 @@
         <v>216</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C117" s="10">
         <v>47</v>
@@ -5944,13 +5941,13 @@
         <v>1</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H117" s="10">
         <v>3</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J117" s="12">
         <v>4</v>
@@ -5961,7 +5958,7 @@
         <v>217</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C118" s="10">
         <v>52</v>
@@ -5976,13 +5973,13 @@
         <v>1</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H118" s="10">
         <v>1</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J118" s="12">
         <v>8</v>
@@ -6005,13 +6002,13 @@
         <v>1</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H119" s="10">
         <v>2</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J119" s="10">
         <v>2</v>
@@ -6022,7 +6019,7 @@
         <v>219</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C120" s="10">
         <v>29</v>
@@ -6037,13 +6034,13 @@
         <v>1</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H120" s="10">
         <v>1</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J120" s="12">
         <v>0</v>
@@ -6054,7 +6051,7 @@
         <v>220</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C121" s="10">
         <v>2</v>
@@ -6069,13 +6066,13 @@
         <v>0</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H121" s="10">
         <v>2</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J121" s="10">
         <v>0</v>
@@ -6086,7 +6083,7 @@
         <v>221</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C122" s="10">
         <v>53</v>
@@ -6101,13 +6098,13 @@
         <v>1</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H122" s="10">
         <v>3</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J122" s="12">
         <v>3</v>
@@ -6118,7 +6115,7 @@
         <v>222</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C123" s="10">
         <v>50</v>
@@ -6133,13 +6130,13 @@
         <v>1</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H123" s="10">
         <v>2</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J123" s="12">
         <v>7</v>
@@ -6150,7 +6147,7 @@
         <v>223</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C124" s="10">
         <v>34</v>
@@ -6165,13 +6162,13 @@
         <v>1</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H124" s="10">
         <v>3</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J124" s="10">
         <v>1</v>
@@ -6182,7 +6179,7 @@
         <v>224</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C125" s="10">
         <v>19</v>
@@ -6197,13 +6194,13 @@
         <v>0</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H125" s="10">
         <v>3</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J125" s="12">
         <v>5</v>
@@ -6214,7 +6211,7 @@
         <v>225</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C126" s="10">
         <v>41</v>
@@ -6229,13 +6226,13 @@
         <v>1</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H126" s="10">
         <v>3</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J126" s="12">
         <v>3</v>
@@ -6246,7 +6243,7 @@
         <v>226</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C127" s="10">
         <v>29</v>
@@ -6261,13 +6258,13 @@
         <v>1</v>
       </c>
       <c r="G127" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H127" s="10">
+        <v>1</v>
+      </c>
+      <c r="I127" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H127" s="10">
-        <v>1</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J127" s="10">
         <v>1</v>
@@ -6278,7 +6275,7 @@
         <v>227</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C128" s="10">
         <v>47</v>
@@ -6291,13 +6288,13 @@
       </c>
       <c r="F128" s="10"/>
       <c r="G128" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H128" s="10">
         <v>2</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J128" s="12">
         <v>7</v>
@@ -6308,7 +6305,7 @@
         <v>228</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C129" s="10">
         <v>43</v>
@@ -6323,13 +6320,13 @@
         <v>1</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H129" s="10">
         <v>1</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J129" s="12">
         <v>6</v>
@@ -6340,7 +6337,7 @@
         <v>229</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C130" s="10">
         <v>23</v>
@@ -6355,13 +6352,13 @@
         <v>1</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H130" s="10">
         <v>3</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J130" s="12">
         <v>8</v>
@@ -6372,7 +6369,7 @@
         <v>230</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C131" s="10">
         <v>55</v>
@@ -6387,13 +6384,13 @@
         <v>1</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H131" s="10">
         <v>2</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J131" s="12">
         <v>5</v>
@@ -6404,7 +6401,7 @@
         <v>231</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C132" s="10">
         <v>44</v>
@@ -6419,13 +6416,13 @@
         <v>1</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H132" s="10">
         <v>3</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J132" s="12">
         <v>9</v>
@@ -6436,7 +6433,7 @@
         <v>232</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C133" s="10">
         <v>18</v>
@@ -6451,13 +6448,13 @@
         <v>0</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H133" s="10">
         <v>0</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J133" s="12">
         <v>0</v>
@@ -6468,7 +6465,7 @@
         <v>233</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C134" s="10">
         <v>31</v>
@@ -6483,11 +6480,11 @@
         <v>1</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H134" s="10"/>
       <c r="I134" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J134" s="12">
         <v>6</v>
@@ -6498,7 +6495,7 @@
         <v>234</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C135" s="10">
         <v>20</v>
@@ -6513,13 +6510,13 @@
         <v>0</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H135" s="10">
         <v>3</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J135" s="12">
         <v>6</v>
@@ -6530,10 +6527,10 @@
         <v>235</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D136" s="10">
         <v>2459016</v>
@@ -6543,13 +6540,13 @@
       </c>
       <c r="F136" s="10"/>
       <c r="G136" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H136" s="10">
         <v>3</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J136" s="12">
         <v>5</v>
@@ -6572,13 +6569,13 @@
         <v>1</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H137" s="10">
         <v>2</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J137" s="10">
         <v>2</v>
@@ -6589,7 +6586,7 @@
         <v>237</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C138" s="10">
         <v>43</v>
@@ -6604,13 +6601,13 @@
         <v>1</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H138" s="10">
         <v>2</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J138" s="12">
         <v>7</v>
@@ -6621,7 +6618,7 @@
         <v>238</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C139" s="10">
         <v>35</v>
@@ -6636,13 +6633,13 @@
         <v>1</v>
       </c>
       <c r="G139" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H139" s="10">
+        <v>1</v>
+      </c>
+      <c r="I139" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H139" s="10">
-        <v>1</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J139" s="12">
         <v>4</v>
@@ -6653,7 +6650,7 @@
         <v>239</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C140" s="10">
         <v>20</v>
@@ -6668,13 +6665,13 @@
         <v>0</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H140" s="10">
         <v>2</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J140" s="12">
         <v>5</v>
@@ -6685,7 +6682,7 @@
         <v>240</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C141" s="10">
         <v>30</v>
@@ -6700,13 +6697,13 @@
         <v>1</v>
       </c>
       <c r="G141" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H141" s="10">
+        <v>1</v>
+      </c>
+      <c r="I141" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H141" s="10">
-        <v>1</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J141" s="12">
         <v>3</v>
@@ -6717,7 +6714,7 @@
         <v>241</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C142" s="10">
         <v>50</v>
@@ -6730,13 +6727,13 @@
       </c>
       <c r="F142" s="10"/>
       <c r="G142" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H142" s="10">
         <v>1</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J142" s="10">
         <v>1</v>
@@ -6747,7 +6744,7 @@
         <v>242</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C143" s="10">
         <v>31</v>
@@ -6762,13 +6759,13 @@
         <v>1</v>
       </c>
       <c r="G143" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H143" s="10">
+        <v>1</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H143" s="10">
-        <v>1</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J143" s="10">
         <v>2</v>
@@ -6779,7 +6776,7 @@
         <v>243</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C144" s="10">
         <v>25</v>
@@ -6794,13 +6791,13 @@
         <v>1</v>
       </c>
       <c r="G144" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H144" s="10">
+        <v>1</v>
+      </c>
+      <c r="I144" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H144" s="10">
-        <v>1</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J144" s="12">
         <v>6</v>
@@ -6811,7 +6808,7 @@
         <v>244</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C145" s="10">
         <v>42</v>
@@ -6826,13 +6823,13 @@
         <v>1</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H145" s="10">
         <v>3</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J145" s="12">
         <v>7</v>
@@ -6843,7 +6840,7 @@
         <v>245</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C146" s="10">
         <v>34</v>
@@ -6858,13 +6855,13 @@
         <v>1</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H146" s="10">
         <v>3</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J146" s="10">
         <v>0</v>
@@ -6875,7 +6872,7 @@
         <v>246</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C147" s="10">
         <v>38</v>
@@ -6890,13 +6887,13 @@
         <v>1</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H147" s="10">
         <v>1</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J147" s="12">
         <v>7</v>
@@ -6907,7 +6904,7 @@
         <v>247</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C148" s="10">
         <v>19</v>
@@ -6922,13 +6919,13 @@
         <v>0</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H148" s="10">
         <v>1</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J148" s="12">
         <v>5</v>
@@ -6939,7 +6936,7 @@
         <v>248</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C149" s="10">
         <v>47</v>
@@ -6954,13 +6951,13 @@
         <v>1</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H149" s="10">
         <v>2</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J149" s="10">
         <v>0</v>
@@ -6971,7 +6968,7 @@
         <v>249</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C150" s="10">
         <v>21</v>
@@ -6986,13 +6983,13 @@
         <v>0</v>
       </c>
       <c r="G150" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H150" s="10">
+        <v>1</v>
+      </c>
+      <c r="I150" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H150" s="10">
-        <v>1</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J150" s="12">
         <v>8</v>
@@ -7003,7 +7000,7 @@
         <v>250</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C151" s="10">
         <v>56</v>
@@ -7018,13 +7015,13 @@
         <v>1</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H151" s="10">
         <v>2</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J151" s="12">
         <v>8</v>
@@ -7035,7 +7032,7 @@
         <v>251</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C152" s="10">
         <v>37</v>
@@ -7050,13 +7047,13 @@
         <v>1</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H152" s="10">
         <v>3</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J152" s="10">
         <v>1</v>
@@ -7067,7 +7064,7 @@
         <v>252</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C153" s="10">
         <v>30</v>
@@ -7079,14 +7076,14 @@
         <v>97</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H153" s="10"/>
       <c r="I153" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J153" s="12">
         <v>0</v>
@@ -7097,7 +7094,7 @@
         <v>253</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C154" s="10">
         <v>59</v>
@@ -7112,13 +7109,13 @@
         <v>1</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H154" s="10">
         <v>3</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J154" s="12">
         <v>5</v>
@@ -7129,7 +7126,7 @@
         <v>254</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C155" s="10">
         <v>26</v>
@@ -7144,13 +7141,13 @@
         <v>1</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H155" s="10">
         <v>1</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J155" s="10">
         <v>0</v>
@@ -7161,7 +7158,7 @@
         <v>255</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C156" s="10">
         <v>35</v>
@@ -7176,13 +7173,13 @@
         <v>1</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H156" s="10">
         <v>0</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J156" s="12">
         <v>0</v>
@@ -7193,7 +7190,7 @@
         <v>256</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C157" s="10">
         <v>35</v>
@@ -7208,13 +7205,13 @@
         <v>1</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H157" s="10">
         <v>0</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J157" s="12">
         <v>0</v>
@@ -7225,7 +7222,7 @@
         <v>257</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C158" s="10">
         <v>36</v>
@@ -7240,13 +7237,13 @@
         <v>1</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H158" s="10">
         <v>3</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J158" s="12">
         <v>3</v>
@@ -7257,7 +7254,7 @@
         <v>258</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C159" s="10">
         <v>38</v>
@@ -7272,13 +7269,13 @@
         <v>1</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H159" s="10">
         <v>1</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J159" s="10">
         <v>1</v>
@@ -7289,7 +7286,7 @@
         <v>259</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C160" s="10">
         <v>28</v>
@@ -7304,13 +7301,13 @@
         <v>1</v>
       </c>
       <c r="G160" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H160" s="10">
+        <v>1</v>
+      </c>
+      <c r="I160" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H160" s="10">
-        <v>1</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J160" s="12">
         <v>5</v>
@@ -7321,7 +7318,7 @@
         <v>260</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C161" s="10">
         <v>45</v>
@@ -7336,13 +7333,13 @@
         <v>1</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H161" s="10">
         <v>2</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J161" s="10">
         <v>0</v>
@@ -7353,7 +7350,7 @@
         <v>261</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C162" s="10">
         <v>32</v>
@@ -7368,13 +7365,13 @@
         <v>1</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H162" s="10">
         <v>0</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J162" s="12">
         <v>0</v>
@@ -7385,7 +7382,7 @@
         <v>262</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C163" s="10">
         <v>19</v>
@@ -7400,13 +7397,13 @@
         <v>0</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H163" s="10">
         <v>2</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J163" s="12">
         <v>8</v>
@@ -7417,7 +7414,7 @@
         <v>263</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C164" s="10">
         <v>29</v>
@@ -7432,13 +7429,13 @@
         <v>1</v>
       </c>
       <c r="G164" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H164" s="10">
+        <v>1</v>
+      </c>
+      <c r="I164" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H164" s="10">
-        <v>1</v>
-      </c>
-      <c r="I164" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J164" s="12">
         <v>0</v>
@@ -7449,7 +7446,7 @@
         <v>264</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C165" s="10">
         <v>58</v>
@@ -7464,13 +7461,13 @@
         <v>1</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H165" s="10">
         <v>1</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J165" s="12">
         <v>4</v>
@@ -7481,7 +7478,7 @@
         <v>265</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C166" s="10">
         <v>29</v>
@@ -7496,13 +7493,13 @@
         <v>1</v>
       </c>
       <c r="G166" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H166" s="10">
+        <v>1</v>
+      </c>
+      <c r="I166" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H166" s="10">
-        <v>1</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J166" s="10">
         <v>2</v>
@@ -7513,7 +7510,7 @@
         <v>266</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C167" s="10">
         <v>54</v>
@@ -7528,13 +7525,13 @@
         <v>1</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H167" s="10">
         <v>1</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J167" s="12">
         <v>3</v>
@@ -7545,7 +7542,7 @@
         <v>267</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C168" s="10">
         <v>30</v>
@@ -7560,13 +7557,13 @@
         <v>1</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H168" s="10">
         <v>1</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J168" s="12">
         <v>5</v>
@@ -7577,7 +7574,7 @@
         <v>268</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C169" s="10">
         <v>32</v>
@@ -7592,13 +7589,13 @@
         <v>1</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H169" s="10">
         <v>1</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J169" s="12">
         <v>5</v>
@@ -7609,7 +7606,7 @@
         <v>269</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C170" s="10">
         <v>24</v>
@@ -7624,13 +7621,13 @@
         <v>1</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H170" s="10">
         <v>1</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J170" s="12">
         <v>8</v>
@@ -7641,7 +7638,7 @@
         <v>270</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C171" s="10">
         <v>32</v>
@@ -7656,13 +7653,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H171" s="10">
         <v>1</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J171" s="12">
         <v>3</v>
@@ -7673,7 +7670,7 @@
         <v>271</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C172" s="10">
         <v>27</v>
@@ -7688,13 +7685,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H172" s="10">
         <v>1</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J172" s="12">
         <v>4</v>
@@ -7705,7 +7702,7 @@
         <v>272</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C173" s="10">
         <v>57</v>
@@ -7720,13 +7717,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H173" s="10">
         <v>3</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J173" s="12">
         <v>8</v>
@@ -7737,7 +7734,7 @@
         <v>273</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C174" s="10">
         <v>50</v>
@@ -7752,13 +7749,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H174" s="10">
         <v>2</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J174" s="10">
         <v>1</v>
@@ -7769,7 +7766,7 @@
         <v>274</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C175" s="10">
         <v>26</v>
@@ -7784,13 +7781,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H175" s="10">
         <v>1</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J175" s="12">
         <v>5</v>
@@ -7801,7 +7798,7 @@
         <v>275</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C176" s="10">
         <v>36</v>
@@ -7816,13 +7813,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H176" s="10">
+        <v>1</v>
+      </c>
+      <c r="I176" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H176" s="10">
-        <v>1</v>
-      </c>
-      <c r="I176" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J176" s="12">
         <v>4</v>
@@ -7833,7 +7830,7 @@
         <v>276</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C177" s="10">
         <v>43</v>
@@ -7848,13 +7845,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H177" s="10">
         <v>3</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J177" s="12">
         <v>5</v>
@@ -7865,7 +7862,7 @@
         <v>277</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C178" s="10">
         <v>25</v>
@@ -7880,13 +7877,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H178" s="10">
         <v>3</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J178" s="12">
         <v>8</v>
@@ -7897,7 +7894,7 @@
         <v>278</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C179" s="10">
         <v>30</v>
@@ -7912,13 +7909,13 @@
         <v>0</v>
       </c>
       <c r="G179" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H179" s="10">
+        <v>1</v>
+      </c>
+      <c r="I179" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H179" s="10">
-        <v>1</v>
-      </c>
-      <c r="I179" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J179" s="12">
         <v>7</v>
@@ -7929,7 +7926,7 @@
         <v>279</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C180" s="10">
         <v>22</v>
@@ -7944,13 +7941,13 @@
         <v>0</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H180" s="10">
         <v>1</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J180" s="12">
         <v>8</v>
@@ -7961,7 +7958,7 @@
         <v>280</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C181" s="10">
         <v>32</v>
@@ -7976,13 +7973,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H181" s="10">
         <v>1</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J181" s="10">
         <v>1</v>
@@ -7993,7 +7990,7 @@
         <v>281</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C182" s="10">
         <v>50</v>
@@ -8005,16 +8002,16 @@
         <v>26</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H182" s="10">
         <v>3</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J182" s="12">
         <v>4</v>
@@ -8025,7 +8022,7 @@
         <v>282</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C183" s="10">
         <v>32</v>
@@ -8040,13 +8037,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H183" s="10">
         <v>1</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J183" s="10">
         <v>2</v>
@@ -8057,7 +8054,7 @@
         <v>283</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C184" s="10">
         <v>47</v>
@@ -8072,13 +8069,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H184" s="10">
         <v>3</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J184" s="10">
         <v>2</v>
@@ -8089,7 +8086,7 @@
         <v>284</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C185" s="10">
         <v>23</v>
@@ -8104,13 +8101,13 @@
         <v>0</v>
       </c>
       <c r="G185" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H185" s="10">
+        <v>1</v>
+      </c>
+      <c r="I185" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H185" s="10">
-        <v>1</v>
-      </c>
-      <c r="I185" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J185" s="12">
         <v>7</v>
@@ -8121,7 +8118,7 @@
         <v>285</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C186" s="10">
         <v>33</v>
@@ -8136,13 +8133,13 @@
         <v>1</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H186" s="10">
         <v>3</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J186" s="12">
         <v>3</v>
@@ -8153,7 +8150,7 @@
         <v>286</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C187" s="10">
         <v>21</v>
@@ -8168,13 +8165,13 @@
         <v>0</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H187" s="10">
         <v>1</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J187" s="10">
         <v>0</v>
@@ -8185,7 +8182,7 @@
         <v>287</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C188" s="10">
         <v>46</v>
@@ -8200,13 +8197,13 @@
         <v>1</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H188" s="10">
         <v>3</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J188" s="12">
         <v>7</v>
@@ -8217,7 +8214,7 @@
         <v>288</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C189" s="10">
         <v>19</v>
@@ -8232,13 +8229,13 @@
         <v>0</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H189" s="10">
         <v>2</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J189" s="12">
         <v>3</v>
@@ -8249,7 +8246,7 @@
         <v>289</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C190" s="10">
         <v>56</v>
@@ -8264,13 +8261,13 @@
         <v>1</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H190" s="10">
         <v>2</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J190" s="12">
         <v>4</v>
@@ -8281,7 +8278,7 @@
         <v>290</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C191" s="10">
         <v>57</v>
@@ -8296,13 +8293,13 @@
         <v>1</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H191" s="10">
         <v>1</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J191" s="12">
         <v>8</v>
@@ -8313,7 +8310,7 @@
         <v>291</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C192" s="10">
         <v>52</v>
@@ -8326,13 +8323,13 @@
       </c>
       <c r="F192" s="10"/>
       <c r="G192" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H192" s="10">
         <v>3</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J192" s="10">
         <v>2</v>
@@ -8343,7 +8340,7 @@
         <v>292</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C193" s="10">
         <v>22</v>
@@ -8358,13 +8355,13 @@
         <v>1</v>
       </c>
       <c r="G193" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H193" s="10">
+        <v>1</v>
+      </c>
+      <c r="I193" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H193" s="10">
-        <v>1</v>
-      </c>
-      <c r="I193" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J193" s="10">
         <v>0</v>
@@ -8375,7 +8372,7 @@
         <v>293</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C194" s="10">
         <v>31</v>
@@ -8390,13 +8387,13 @@
         <v>1</v>
       </c>
       <c r="G194" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H194" s="10">
+        <v>1</v>
+      </c>
+      <c r="I194" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H194" s="10">
-        <v>1</v>
-      </c>
-      <c r="I194" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J194" s="12">
         <v>4</v>
@@ -8407,7 +8404,7 @@
         <v>294</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C195" s="10">
         <v>54</v>
@@ -8422,13 +8419,13 @@
         <v>1</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H195" s="10">
         <v>2</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J195" s="12">
         <v>3</v>
@@ -8439,7 +8436,7 @@
         <v>295</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C196" s="10">
         <v>31</v>
@@ -8454,11 +8451,11 @@
         <v>1</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H196" s="10"/>
       <c r="I196" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J196" s="12">
         <v>3</v>
@@ -8469,7 +8466,7 @@
         <v>296</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C197" s="10">
         <v>31</v>
@@ -8484,13 +8481,13 @@
         <v>1</v>
       </c>
       <c r="G197" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H197" s="10">
+        <v>1</v>
+      </c>
+      <c r="I197" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H197" s="10">
-        <v>1</v>
-      </c>
-      <c r="I197" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J197" s="10">
         <v>0</v>
@@ -8501,7 +8498,7 @@
         <v>297</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C198" s="10">
         <v>57</v>
@@ -8516,13 +8513,13 @@
         <v>1</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H198" s="10">
         <v>1</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J198" s="12">
         <v>5</v>
@@ -8533,7 +8530,7 @@
         <v>298</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C199" s="10">
         <v>35</v>
@@ -8548,13 +8545,13 @@
         <v>1</v>
       </c>
       <c r="G199" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H199" s="10">
+        <v>1</v>
+      </c>
+      <c r="I199" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H199" s="10">
-        <v>1</v>
-      </c>
-      <c r="I199" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J199" s="12">
         <v>7</v>
@@ -8565,7 +8562,7 @@
         <v>299</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C200" s="10">
         <v>23</v>
@@ -8580,13 +8577,13 @@
         <v>1</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H200" s="10">
         <v>0</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J200" s="12">
         <v>0</v>
@@ -8597,7 +8594,7 @@
         <v>300</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C201" s="10">
         <v>50</v>
@@ -8612,13 +8609,13 @@
         <v>1</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H201" s="10">
         <v>3</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J201" s="12">
         <v>6</v>
